--- a/設計書/08SleepLeader_機能詳細仕様書.xlsx
+++ b/設計書/08SleepLeader_機能詳細仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\umeki\Desktop\Sleep\再提出\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SleepLeader\SleepLeader\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0403D2-9889-49F4-A455-1238683DF7A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E08DC72-CA66-4BF2-A8C8-1BD919F63D95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3936" yWindow="720" windowWidth="17280" windowHeight="8940" firstSheet="6" activeTab="6" xr2:uid="{1A4B43E4-094B-4C0A-9C2B-62039C435C55}"/>
+    <workbookView xWindow="9900" yWindow="168" windowWidth="13140" windowHeight="12792" firstSheet="2" activeTab="4" xr2:uid="{1A4B43E4-094B-4C0A-9C2B-62039C435C55}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -1914,10 +1914,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>3-1</t>
     <phoneticPr fontId="14"/>
   </si>
@@ -1960,6 +1956,10 @@
       <t>ショキセッテイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="14"/>
   </si>
 </sst>
 </file>
@@ -2584,23 +2584,141 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2611,15 +2729,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2628,6 +2737,134 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2641,133 +2878,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2787,6 +2932,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2796,29 +2965,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2826,174 +2983,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3370,10 +3370,10 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="Q2" s="133" t="s">
+      <c r="Q2" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="134"/>
+      <c r="R2" s="177"/>
       <c r="S2" s="26">
         <v>43720</v>
       </c>
@@ -3426,14 +3426,14 @@
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
-      <c r="Q4" s="112" t="s">
+      <c r="Q4" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="113"/>
-      <c r="S4" s="113"/>
-      <c r="T4" s="113"/>
-      <c r="U4" s="113"/>
-      <c r="V4" s="114"/>
+      <c r="R4" s="218"/>
+      <c r="S4" s="218"/>
+      <c r="T4" s="218"/>
+      <c r="U4" s="218"/>
+      <c r="V4" s="219"/>
       <c r="W4" s="4"/>
       <c r="X4" s="5"/>
     </row>
@@ -3454,14 +3454,14 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="112" t="s">
+      <c r="Q5" s="217" t="s">
         <v>151</v>
       </c>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="113"/>
-      <c r="V5" s="114"/>
+      <c r="R5" s="218"/>
+      <c r="S5" s="218"/>
+      <c r="T5" s="218"/>
+      <c r="U5" s="218"/>
+      <c r="V5" s="219"/>
       <c r="W5" s="4"/>
       <c r="X5" s="5"/>
     </row>
@@ -3472,14 +3472,14 @@
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
-      <c r="E6" s="147" t="s">
+      <c r="E6" s="200" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="148"/>
+      <c r="F6" s="201"/>
+      <c r="G6" s="201"/>
+      <c r="H6" s="201"/>
+      <c r="I6" s="201"/>
+      <c r="J6" s="201"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -3497,65 +3497,65 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="3"/>
-      <c r="B7" s="168" t="s">
+      <c r="B7" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="169"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="135" t="s">
+      <c r="C7" s="185"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="137"/>
+      <c r="F7" s="191"/>
+      <c r="G7" s="191"/>
+      <c r="H7" s="191"/>
+      <c r="I7" s="191"/>
+      <c r="J7" s="191"/>
+      <c r="K7" s="191"/>
+      <c r="L7" s="191"/>
+      <c r="M7" s="191"/>
+      <c r="N7" s="192"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="133" t="s">
+      <c r="Q7" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="134"/>
-      <c r="S7" s="133" t="s">
+      <c r="R7" s="177"/>
+      <c r="S7" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="134"/>
-      <c r="U7" s="133" t="s">
+      <c r="T7" s="177"/>
+      <c r="U7" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="V7" s="134"/>
+      <c r="V7" s="177"/>
       <c r="W7" s="25"/>
       <c r="X7" s="21"/>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="3"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="172"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="139"/>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="140"/>
+      <c r="B8" s="187"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="193"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="194"/>
+      <c r="N8" s="195"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="141"/>
-      <c r="R8" s="142"/>
-      <c r="S8" s="141"/>
-      <c r="T8" s="142"/>
-      <c r="U8" s="158" t="s">
+      <c r="Q8" s="196"/>
+      <c r="R8" s="197"/>
+      <c r="S8" s="196"/>
+      <c r="T8" s="197"/>
+      <c r="U8" s="178" t="s">
         <v>23</v>
       </c>
-      <c r="V8" s="159"/>
+      <c r="V8" s="179"/>
       <c r="W8" s="23"/>
       <c r="X8" s="21"/>
     </row>
@@ -3576,12 +3576,12 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="143"/>
-      <c r="R9" s="144"/>
-      <c r="S9" s="143"/>
-      <c r="T9" s="144"/>
-      <c r="U9" s="160"/>
-      <c r="V9" s="161"/>
+      <c r="Q9" s="198"/>
+      <c r="R9" s="199"/>
+      <c r="S9" s="198"/>
+      <c r="T9" s="199"/>
+      <c r="U9" s="180"/>
+      <c r="V9" s="181"/>
       <c r="W9" s="23"/>
       <c r="X9" s="21"/>
     </row>
@@ -3602,12 +3602,12 @@
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
       <c r="P10" s="17"/>
-      <c r="Q10" s="145"/>
-      <c r="R10" s="146"/>
-      <c r="S10" s="145"/>
-      <c r="T10" s="146"/>
-      <c r="U10" s="162"/>
-      <c r="V10" s="163"/>
+      <c r="Q10" s="161"/>
+      <c r="R10" s="163"/>
+      <c r="S10" s="161"/>
+      <c r="T10" s="163"/>
+      <c r="U10" s="182"/>
+      <c r="V10" s="183"/>
       <c r="W10" s="23"/>
       <c r="X10" s="21"/>
     </row>
@@ -3691,81 +3691,81 @@
     </row>
     <row r="14" spans="1:24" ht="41.4">
       <c r="A14" s="3"/>
-      <c r="B14" s="149" t="s">
+      <c r="B14" s="167" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="150"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="150"/>
-      <c r="L14" s="150"/>
-      <c r="M14" s="150"/>
-      <c r="N14" s="150"/>
-      <c r="O14" s="150"/>
-      <c r="P14" s="150"/>
-      <c r="Q14" s="150"/>
-      <c r="R14" s="150"/>
-      <c r="S14" s="150"/>
-      <c r="T14" s="150"/>
-      <c r="U14" s="150"/>
-      <c r="V14" s="151"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="168"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="168"/>
+      <c r="I14" s="168"/>
+      <c r="J14" s="168"/>
+      <c r="K14" s="168"/>
+      <c r="L14" s="168"/>
+      <c r="M14" s="168"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="168"/>
+      <c r="Q14" s="168"/>
+      <c r="R14" s="168"/>
+      <c r="S14" s="168"/>
+      <c r="T14" s="168"/>
+      <c r="U14" s="168"/>
+      <c r="V14" s="169"/>
       <c r="W14" s="86"/>
       <c r="X14" s="5"/>
     </row>
     <row r="15" spans="1:24" ht="41.4">
       <c r="A15" s="3"/>
-      <c r="B15" s="152"/>
-      <c r="C15" s="153"/>
-      <c r="D15" s="153"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="153"/>
-      <c r="L15" s="153"/>
-      <c r="M15" s="153"/>
-      <c r="N15" s="153"/>
-      <c r="O15" s="153"/>
-      <c r="P15" s="153"/>
-      <c r="Q15" s="153"/>
-      <c r="R15" s="153"/>
-      <c r="S15" s="153"/>
-      <c r="T15" s="153"/>
-      <c r="U15" s="153"/>
-      <c r="V15" s="154"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="171"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="171"/>
+      <c r="K15" s="171"/>
+      <c r="L15" s="171"/>
+      <c r="M15" s="171"/>
+      <c r="N15" s="171"/>
+      <c r="O15" s="171"/>
+      <c r="P15" s="171"/>
+      <c r="Q15" s="171"/>
+      <c r="R15" s="171"/>
+      <c r="S15" s="171"/>
+      <c r="T15" s="171"/>
+      <c r="U15" s="171"/>
+      <c r="V15" s="172"/>
       <c r="W15" s="86"/>
       <c r="X15" s="5"/>
     </row>
     <row r="16" spans="1:24" ht="41.4">
       <c r="A16" s="3"/>
-      <c r="B16" s="155"/>
-      <c r="C16" s="156"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="156"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="156"/>
-      <c r="L16" s="156"/>
-      <c r="M16" s="156"/>
-      <c r="N16" s="156"/>
-      <c r="O16" s="156"/>
-      <c r="P16" s="156"/>
-      <c r="Q16" s="156"/>
-      <c r="R16" s="156"/>
-      <c r="S16" s="156"/>
-      <c r="T16" s="156"/>
-      <c r="U16" s="156"/>
-      <c r="V16" s="157"/>
+      <c r="B16" s="173"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="174"/>
+      <c r="K16" s="174"/>
+      <c r="L16" s="174"/>
+      <c r="M16" s="174"/>
+      <c r="N16" s="174"/>
+      <c r="O16" s="174"/>
+      <c r="P16" s="174"/>
+      <c r="Q16" s="174"/>
+      <c r="R16" s="174"/>
+      <c r="S16" s="174"/>
+      <c r="T16" s="174"/>
+      <c r="U16" s="174"/>
+      <c r="V16" s="175"/>
       <c r="W16" s="86"/>
       <c r="X16" s="5"/>
     </row>
@@ -4059,519 +4059,519 @@
     </row>
     <row r="28" spans="1:24">
       <c r="A28" s="3"/>
-      <c r="B28" s="127" t="s">
+      <c r="B28" s="208" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="128"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="109" t="s">
+      <c r="C28" s="209"/>
+      <c r="D28" s="210"/>
+      <c r="E28" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="110"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="118" t="s">
+      <c r="F28" s="215"/>
+      <c r="G28" s="216"/>
+      <c r="H28" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="119"/>
-      <c r="J28" s="119"/>
-      <c r="K28" s="119"/>
-      <c r="L28" s="119"/>
-      <c r="M28" s="119"/>
-      <c r="N28" s="119"/>
-      <c r="O28" s="119"/>
-      <c r="P28" s="119"/>
-      <c r="Q28" s="119"/>
-      <c r="R28" s="119"/>
-      <c r="S28" s="120"/>
-      <c r="T28" s="109" t="s">
+      <c r="I28" s="221"/>
+      <c r="J28" s="221"/>
+      <c r="K28" s="221"/>
+      <c r="L28" s="221"/>
+      <c r="M28" s="221"/>
+      <c r="N28" s="221"/>
+      <c r="O28" s="221"/>
+      <c r="P28" s="221"/>
+      <c r="Q28" s="221"/>
+      <c r="R28" s="221"/>
+      <c r="S28" s="222"/>
+      <c r="T28" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="U28" s="110"/>
-      <c r="V28" s="111"/>
+      <c r="U28" s="215"/>
+      <c r="V28" s="216"/>
       <c r="W28" s="4"/>
       <c r="X28" s="5"/>
     </row>
     <row r="29" spans="1:24">
       <c r="A29" s="3"/>
-      <c r="B29" s="130" t="s">
+      <c r="B29" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="131"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="124">
+      <c r="C29" s="203"/>
+      <c r="D29" s="204"/>
+      <c r="E29" s="205">
         <v>43720</v>
       </c>
-      <c r="F29" s="125"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="109" t="s">
+      <c r="F29" s="206"/>
+      <c r="G29" s="207"/>
+      <c r="H29" s="214" t="s">
         <v>153</v>
       </c>
-      <c r="I29" s="110"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="110"/>
-      <c r="M29" s="110"/>
-      <c r="N29" s="110"/>
-      <c r="O29" s="110"/>
-      <c r="P29" s="110"/>
-      <c r="Q29" s="110"/>
-      <c r="R29" s="110"/>
-      <c r="S29" s="111"/>
-      <c r="T29" s="118" t="s">
+      <c r="I29" s="215"/>
+      <c r="J29" s="215"/>
+      <c r="K29" s="215"/>
+      <c r="L29" s="215"/>
+      <c r="M29" s="215"/>
+      <c r="N29" s="215"/>
+      <c r="O29" s="215"/>
+      <c r="P29" s="215"/>
+      <c r="Q29" s="215"/>
+      <c r="R29" s="215"/>
+      <c r="S29" s="216"/>
+      <c r="T29" s="220" t="s">
         <v>23</v>
       </c>
-      <c r="U29" s="119"/>
-      <c r="V29" s="120"/>
+      <c r="U29" s="221"/>
+      <c r="V29" s="222"/>
       <c r="W29" s="4"/>
       <c r="X29" s="5"/>
     </row>
     <row r="30" spans="1:24">
       <c r="A30" s="3"/>
-      <c r="B30" s="130" t="s">
+      <c r="B30" s="202" t="s">
         <v>157</v>
       </c>
-      <c r="C30" s="131"/>
-      <c r="D30" s="132"/>
-      <c r="E30" s="197">
+      <c r="C30" s="203"/>
+      <c r="D30" s="204"/>
+      <c r="E30" s="211">
         <v>43732</v>
       </c>
-      <c r="F30" s="198"/>
-      <c r="G30" s="199"/>
-      <c r="H30" s="109" t="s">
+      <c r="F30" s="212"/>
+      <c r="G30" s="213"/>
+      <c r="H30" s="214" t="s">
         <v>158</v>
       </c>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="110"/>
-      <c r="M30" s="110"/>
-      <c r="N30" s="110"/>
-      <c r="O30" s="110"/>
-      <c r="P30" s="110"/>
-      <c r="Q30" s="110"/>
-      <c r="R30" s="110"/>
-      <c r="S30" s="111"/>
-      <c r="T30" s="109" t="s">
+      <c r="I30" s="215"/>
+      <c r="J30" s="215"/>
+      <c r="K30" s="215"/>
+      <c r="L30" s="215"/>
+      <c r="M30" s="215"/>
+      <c r="N30" s="215"/>
+      <c r="O30" s="215"/>
+      <c r="P30" s="215"/>
+      <c r="Q30" s="215"/>
+      <c r="R30" s="215"/>
+      <c r="S30" s="216"/>
+      <c r="T30" s="214" t="s">
         <v>159</v>
       </c>
-      <c r="U30" s="110"/>
-      <c r="V30" s="111"/>
+      <c r="U30" s="215"/>
+      <c r="V30" s="216"/>
       <c r="W30" s="4"/>
       <c r="X30" s="5"/>
     </row>
     <row r="31" spans="1:24">
       <c r="A31" s="3"/>
-      <c r="B31" s="115"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="116"/>
-      <c r="M31" s="116"/>
-      <c r="N31" s="116"/>
-      <c r="O31" s="116"/>
-      <c r="P31" s="116"/>
-      <c r="Q31" s="116"/>
-      <c r="R31" s="116"/>
-      <c r="S31" s="117"/>
-      <c r="T31" s="115"/>
-      <c r="U31" s="116"/>
-      <c r="V31" s="117"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="156"/>
+      <c r="M31" s="156"/>
+      <c r="N31" s="156"/>
+      <c r="O31" s="156"/>
+      <c r="P31" s="156"/>
+      <c r="Q31" s="156"/>
+      <c r="R31" s="156"/>
+      <c r="S31" s="157"/>
+      <c r="T31" s="155"/>
+      <c r="U31" s="156"/>
+      <c r="V31" s="157"/>
       <c r="W31" s="4"/>
       <c r="X31" s="5"/>
     </row>
     <row r="32" spans="1:24">
       <c r="A32" s="3"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="116"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="116"/>
-      <c r="O32" s="116"/>
-      <c r="P32" s="116"/>
-      <c r="Q32" s="116"/>
-      <c r="R32" s="116"/>
-      <c r="S32" s="117"/>
-      <c r="T32" s="115"/>
-      <c r="U32" s="116"/>
-      <c r="V32" s="117"/>
+      <c r="B32" s="155"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="156"/>
+      <c r="M32" s="156"/>
+      <c r="N32" s="156"/>
+      <c r="O32" s="156"/>
+      <c r="P32" s="156"/>
+      <c r="Q32" s="156"/>
+      <c r="R32" s="156"/>
+      <c r="S32" s="157"/>
+      <c r="T32" s="155"/>
+      <c r="U32" s="156"/>
+      <c r="V32" s="157"/>
       <c r="W32" s="4"/>
       <c r="X32" s="5"/>
     </row>
     <row r="33" spans="1:24">
       <c r="A33" s="3"/>
-      <c r="B33" s="115"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="121"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="116"/>
-      <c r="M33" s="116"/>
-      <c r="N33" s="116"/>
-      <c r="O33" s="116"/>
-      <c r="P33" s="116"/>
-      <c r="Q33" s="116"/>
-      <c r="R33" s="116"/>
-      <c r="S33" s="117"/>
-      <c r="T33" s="115"/>
-      <c r="U33" s="116"/>
-      <c r="V33" s="117"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="155"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="156"/>
+      <c r="L33" s="156"/>
+      <c r="M33" s="156"/>
+      <c r="N33" s="156"/>
+      <c r="O33" s="156"/>
+      <c r="P33" s="156"/>
+      <c r="Q33" s="156"/>
+      <c r="R33" s="156"/>
+      <c r="S33" s="157"/>
+      <c r="T33" s="155"/>
+      <c r="U33" s="156"/>
+      <c r="V33" s="157"/>
       <c r="W33" s="4"/>
       <c r="X33" s="5"/>
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="3"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="116"/>
-      <c r="M34" s="116"/>
-      <c r="N34" s="116"/>
-      <c r="O34" s="116"/>
-      <c r="P34" s="116"/>
-      <c r="Q34" s="116"/>
-      <c r="R34" s="116"/>
-      <c r="S34" s="117"/>
-      <c r="T34" s="115"/>
-      <c r="U34" s="116"/>
-      <c r="V34" s="117"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="155"/>
+      <c r="I34" s="156"/>
+      <c r="J34" s="156"/>
+      <c r="K34" s="156"/>
+      <c r="L34" s="156"/>
+      <c r="M34" s="156"/>
+      <c r="N34" s="156"/>
+      <c r="O34" s="156"/>
+      <c r="P34" s="156"/>
+      <c r="Q34" s="156"/>
+      <c r="R34" s="156"/>
+      <c r="S34" s="157"/>
+      <c r="T34" s="155"/>
+      <c r="U34" s="156"/>
+      <c r="V34" s="157"/>
       <c r="W34" s="4"/>
       <c r="X34" s="5"/>
     </row>
     <row r="35" spans="1:24">
       <c r="A35" s="3"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="122"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="116"/>
-      <c r="M35" s="116"/>
-      <c r="N35" s="116"/>
-      <c r="O35" s="116"/>
-      <c r="P35" s="116"/>
-      <c r="Q35" s="116"/>
-      <c r="R35" s="116"/>
-      <c r="S35" s="117"/>
-      <c r="T35" s="115"/>
-      <c r="U35" s="116"/>
-      <c r="V35" s="117"/>
+      <c r="B35" s="155"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="155"/>
+      <c r="I35" s="156"/>
+      <c r="J35" s="156"/>
+      <c r="K35" s="156"/>
+      <c r="L35" s="156"/>
+      <c r="M35" s="156"/>
+      <c r="N35" s="156"/>
+      <c r="O35" s="156"/>
+      <c r="P35" s="156"/>
+      <c r="Q35" s="156"/>
+      <c r="R35" s="156"/>
+      <c r="S35" s="157"/>
+      <c r="T35" s="155"/>
+      <c r="U35" s="156"/>
+      <c r="V35" s="157"/>
       <c r="W35" s="4"/>
       <c r="X35" s="5"/>
     </row>
     <row r="36" spans="1:24">
       <c r="A36" s="3"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="122"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="116"/>
-      <c r="M36" s="116"/>
-      <c r="N36" s="116"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="116"/>
-      <c r="Q36" s="116"/>
-      <c r="R36" s="116"/>
-      <c r="S36" s="117"/>
-      <c r="T36" s="115"/>
-      <c r="U36" s="116"/>
-      <c r="V36" s="117"/>
+      <c r="B36" s="155"/>
+      <c r="C36" s="156"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="158"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="155"/>
+      <c r="I36" s="156"/>
+      <c r="J36" s="156"/>
+      <c r="K36" s="156"/>
+      <c r="L36" s="156"/>
+      <c r="M36" s="156"/>
+      <c r="N36" s="156"/>
+      <c r="O36" s="156"/>
+      <c r="P36" s="156"/>
+      <c r="Q36" s="156"/>
+      <c r="R36" s="156"/>
+      <c r="S36" s="157"/>
+      <c r="T36" s="155"/>
+      <c r="U36" s="156"/>
+      <c r="V36" s="157"/>
       <c r="W36" s="4"/>
       <c r="X36" s="5"/>
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="3"/>
-      <c r="B37" s="115"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="117"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="122"/>
-      <c r="G37" s="123"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="116"/>
-      <c r="M37" s="116"/>
-      <c r="N37" s="116"/>
-      <c r="O37" s="116"/>
-      <c r="P37" s="116"/>
-      <c r="Q37" s="116"/>
-      <c r="R37" s="116"/>
-      <c r="S37" s="117"/>
-      <c r="T37" s="115"/>
-      <c r="U37" s="116"/>
-      <c r="V37" s="117"/>
+      <c r="B37" s="155"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="158"/>
+      <c r="F37" s="159"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="155"/>
+      <c r="I37" s="156"/>
+      <c r="J37" s="156"/>
+      <c r="K37" s="156"/>
+      <c r="L37" s="156"/>
+      <c r="M37" s="156"/>
+      <c r="N37" s="156"/>
+      <c r="O37" s="156"/>
+      <c r="P37" s="156"/>
+      <c r="Q37" s="156"/>
+      <c r="R37" s="156"/>
+      <c r="S37" s="157"/>
+      <c r="T37" s="155"/>
+      <c r="U37" s="156"/>
+      <c r="V37" s="157"/>
       <c r="W37" s="4"/>
       <c r="X37" s="5"/>
     </row>
     <row r="38" spans="1:24">
       <c r="A38" s="3"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="117"/>
-      <c r="E38" s="121"/>
-      <c r="F38" s="122"/>
-      <c r="G38" s="123"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="116"/>
-      <c r="M38" s="116"/>
-      <c r="N38" s="116"/>
-      <c r="O38" s="116"/>
-      <c r="P38" s="116"/>
-      <c r="Q38" s="116"/>
-      <c r="R38" s="116"/>
-      <c r="S38" s="117"/>
-      <c r="T38" s="115"/>
-      <c r="U38" s="116"/>
-      <c r="V38" s="117"/>
+      <c r="B38" s="155"/>
+      <c r="C38" s="156"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="158"/>
+      <c r="F38" s="159"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="156"/>
+      <c r="J38" s="156"/>
+      <c r="K38" s="156"/>
+      <c r="L38" s="156"/>
+      <c r="M38" s="156"/>
+      <c r="N38" s="156"/>
+      <c r="O38" s="156"/>
+      <c r="P38" s="156"/>
+      <c r="Q38" s="156"/>
+      <c r="R38" s="156"/>
+      <c r="S38" s="157"/>
+      <c r="T38" s="155"/>
+      <c r="U38" s="156"/>
+      <c r="V38" s="157"/>
       <c r="W38" s="83"/>
       <c r="X38" s="5"/>
     </row>
     <row r="39" spans="1:24">
       <c r="A39" s="3"/>
-      <c r="B39" s="115"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="122"/>
-      <c r="G39" s="123"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="116"/>
-      <c r="J39" s="116"/>
-      <c r="K39" s="116"/>
-      <c r="L39" s="116"/>
-      <c r="M39" s="116"/>
-      <c r="N39" s="116"/>
-      <c r="O39" s="116"/>
-      <c r="P39" s="116"/>
-      <c r="Q39" s="116"/>
-      <c r="R39" s="116"/>
-      <c r="S39" s="117"/>
-      <c r="T39" s="115"/>
-      <c r="U39" s="116"/>
-      <c r="V39" s="117"/>
+      <c r="B39" s="155"/>
+      <c r="C39" s="156"/>
+      <c r="D39" s="157"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="159"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="155"/>
+      <c r="I39" s="156"/>
+      <c r="J39" s="156"/>
+      <c r="K39" s="156"/>
+      <c r="L39" s="156"/>
+      <c r="M39" s="156"/>
+      <c r="N39" s="156"/>
+      <c r="O39" s="156"/>
+      <c r="P39" s="156"/>
+      <c r="Q39" s="156"/>
+      <c r="R39" s="156"/>
+      <c r="S39" s="157"/>
+      <c r="T39" s="155"/>
+      <c r="U39" s="156"/>
+      <c r="V39" s="157"/>
       <c r="W39" s="83"/>
       <c r="X39" s="5"/>
     </row>
     <row r="40" spans="1:24">
       <c r="A40" s="3"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="121"/>
-      <c r="F40" s="122"/>
-      <c r="G40" s="123"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="116"/>
-      <c r="J40" s="116"/>
-      <c r="K40" s="116"/>
-      <c r="L40" s="116"/>
-      <c r="M40" s="116"/>
-      <c r="N40" s="116"/>
-      <c r="O40" s="116"/>
-      <c r="P40" s="116"/>
-      <c r="Q40" s="116"/>
-      <c r="R40" s="116"/>
-      <c r="S40" s="117"/>
-      <c r="T40" s="115"/>
-      <c r="U40" s="116"/>
-      <c r="V40" s="117"/>
+      <c r="B40" s="155"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="157"/>
+      <c r="E40" s="158"/>
+      <c r="F40" s="159"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="156"/>
+      <c r="J40" s="156"/>
+      <c r="K40" s="156"/>
+      <c r="L40" s="156"/>
+      <c r="M40" s="156"/>
+      <c r="N40" s="156"/>
+      <c r="O40" s="156"/>
+      <c r="P40" s="156"/>
+      <c r="Q40" s="156"/>
+      <c r="R40" s="156"/>
+      <c r="S40" s="157"/>
+      <c r="T40" s="155"/>
+      <c r="U40" s="156"/>
+      <c r="V40" s="157"/>
       <c r="W40" s="83"/>
       <c r="X40" s="5"/>
     </row>
     <row r="41" spans="1:24">
       <c r="A41" s="3"/>
-      <c r="B41" s="115"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="121"/>
-      <c r="F41" s="122"/>
-      <c r="G41" s="123"/>
-      <c r="H41" s="115"/>
-      <c r="I41" s="116"/>
-      <c r="J41" s="116"/>
-      <c r="K41" s="116"/>
-      <c r="L41" s="116"/>
-      <c r="M41" s="116"/>
-      <c r="N41" s="116"/>
-      <c r="O41" s="116"/>
-      <c r="P41" s="116"/>
-      <c r="Q41" s="116"/>
-      <c r="R41" s="116"/>
-      <c r="S41" s="117"/>
-      <c r="T41" s="115"/>
-      <c r="U41" s="116"/>
-      <c r="V41" s="117"/>
+      <c r="B41" s="155"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="157"/>
+      <c r="E41" s="158"/>
+      <c r="F41" s="159"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="155"/>
+      <c r="I41" s="156"/>
+      <c r="J41" s="156"/>
+      <c r="K41" s="156"/>
+      <c r="L41" s="156"/>
+      <c r="M41" s="156"/>
+      <c r="N41" s="156"/>
+      <c r="O41" s="156"/>
+      <c r="P41" s="156"/>
+      <c r="Q41" s="156"/>
+      <c r="R41" s="156"/>
+      <c r="S41" s="157"/>
+      <c r="T41" s="155"/>
+      <c r="U41" s="156"/>
+      <c r="V41" s="157"/>
       <c r="W41" s="83"/>
       <c r="X41" s="5"/>
     </row>
     <row r="42" spans="1:24">
       <c r="A42" s="3"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="117"/>
-      <c r="E42" s="121"/>
-      <c r="F42" s="122"/>
-      <c r="G42" s="123"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="116"/>
-      <c r="J42" s="116"/>
-      <c r="K42" s="116"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="116"/>
-      <c r="N42" s="116"/>
-      <c r="O42" s="116"/>
-      <c r="P42" s="116"/>
-      <c r="Q42" s="116"/>
-      <c r="R42" s="116"/>
-      <c r="S42" s="117"/>
-      <c r="T42" s="115"/>
-      <c r="U42" s="116"/>
-      <c r="V42" s="117"/>
+      <c r="B42" s="155"/>
+      <c r="C42" s="156"/>
+      <c r="D42" s="157"/>
+      <c r="E42" s="158"/>
+      <c r="F42" s="159"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="155"/>
+      <c r="I42" s="156"/>
+      <c r="J42" s="156"/>
+      <c r="K42" s="156"/>
+      <c r="L42" s="156"/>
+      <c r="M42" s="156"/>
+      <c r="N42" s="156"/>
+      <c r="O42" s="156"/>
+      <c r="P42" s="156"/>
+      <c r="Q42" s="156"/>
+      <c r="R42" s="156"/>
+      <c r="S42" s="157"/>
+      <c r="T42" s="155"/>
+      <c r="U42" s="156"/>
+      <c r="V42" s="157"/>
       <c r="W42" s="83"/>
       <c r="X42" s="5"/>
     </row>
     <row r="43" spans="1:24">
       <c r="A43" s="6"/>
-      <c r="B43" s="115"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="117"/>
-      <c r="E43" s="121"/>
-      <c r="F43" s="122"/>
-      <c r="G43" s="123"/>
-      <c r="H43" s="115"/>
-      <c r="I43" s="116"/>
-      <c r="J43" s="116"/>
-      <c r="K43" s="116"/>
-      <c r="L43" s="116"/>
-      <c r="M43" s="116"/>
-      <c r="N43" s="116"/>
-      <c r="O43" s="116"/>
-      <c r="P43" s="116"/>
-      <c r="Q43" s="116"/>
-      <c r="R43" s="116"/>
-      <c r="S43" s="117"/>
-      <c r="T43" s="115"/>
-      <c r="U43" s="116"/>
-      <c r="V43" s="117"/>
+      <c r="B43" s="155"/>
+      <c r="C43" s="156"/>
+      <c r="D43" s="157"/>
+      <c r="E43" s="158"/>
+      <c r="F43" s="159"/>
+      <c r="G43" s="160"/>
+      <c r="H43" s="155"/>
+      <c r="I43" s="156"/>
+      <c r="J43" s="156"/>
+      <c r="K43" s="156"/>
+      <c r="L43" s="156"/>
+      <c r="M43" s="156"/>
+      <c r="N43" s="156"/>
+      <c r="O43" s="156"/>
+      <c r="P43" s="156"/>
+      <c r="Q43" s="156"/>
+      <c r="R43" s="156"/>
+      <c r="S43" s="157"/>
+      <c r="T43" s="155"/>
+      <c r="U43" s="156"/>
+      <c r="V43" s="157"/>
       <c r="W43" s="84"/>
       <c r="X43" s="8"/>
     </row>
     <row r="44" spans="1:24">
       <c r="A44" s="3"/>
-      <c r="B44" s="145"/>
-      <c r="C44" s="164"/>
-      <c r="D44" s="146"/>
-      <c r="E44" s="165"/>
-      <c r="F44" s="166"/>
-      <c r="G44" s="167"/>
-      <c r="H44" s="145"/>
-      <c r="I44" s="164"/>
-      <c r="J44" s="164"/>
-      <c r="K44" s="164"/>
-      <c r="L44" s="164"/>
-      <c r="M44" s="164"/>
-      <c r="N44" s="164"/>
-      <c r="O44" s="164"/>
-      <c r="P44" s="164"/>
-      <c r="Q44" s="164"/>
-      <c r="R44" s="164"/>
-      <c r="S44" s="146"/>
-      <c r="T44" s="145"/>
-      <c r="U44" s="164"/>
-      <c r="V44" s="146"/>
+      <c r="B44" s="161"/>
+      <c r="C44" s="162"/>
+      <c r="D44" s="163"/>
+      <c r="E44" s="164"/>
+      <c r="F44" s="165"/>
+      <c r="G44" s="166"/>
+      <c r="H44" s="161"/>
+      <c r="I44" s="162"/>
+      <c r="J44" s="162"/>
+      <c r="K44" s="162"/>
+      <c r="L44" s="162"/>
+      <c r="M44" s="162"/>
+      <c r="N44" s="162"/>
+      <c r="O44" s="162"/>
+      <c r="P44" s="162"/>
+      <c r="Q44" s="162"/>
+      <c r="R44" s="162"/>
+      <c r="S44" s="163"/>
+      <c r="T44" s="161"/>
+      <c r="U44" s="162"/>
+      <c r="V44" s="163"/>
       <c r="W44" s="19"/>
       <c r="X44" s="5"/>
     </row>
     <row r="45" spans="1:24">
       <c r="A45" s="3"/>
-      <c r="B45" s="115"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="121"/>
-      <c r="F45" s="122"/>
-      <c r="G45" s="123"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="116"/>
-      <c r="J45" s="116"/>
-      <c r="K45" s="116"/>
-      <c r="L45" s="116"/>
-      <c r="M45" s="116"/>
-      <c r="N45" s="116"/>
-      <c r="O45" s="116"/>
-      <c r="P45" s="116"/>
-      <c r="Q45" s="116"/>
-      <c r="R45" s="116"/>
-      <c r="S45" s="117"/>
-      <c r="T45" s="115"/>
-      <c r="U45" s="116"/>
-      <c r="V45" s="117"/>
+      <c r="B45" s="155"/>
+      <c r="C45" s="156"/>
+      <c r="D45" s="157"/>
+      <c r="E45" s="158"/>
+      <c r="F45" s="159"/>
+      <c r="G45" s="160"/>
+      <c r="H45" s="155"/>
+      <c r="I45" s="156"/>
+      <c r="J45" s="156"/>
+      <c r="K45" s="156"/>
+      <c r="L45" s="156"/>
+      <c r="M45" s="156"/>
+      <c r="N45" s="156"/>
+      <c r="O45" s="156"/>
+      <c r="P45" s="156"/>
+      <c r="Q45" s="156"/>
+      <c r="R45" s="156"/>
+      <c r="S45" s="157"/>
+      <c r="T45" s="155"/>
+      <c r="U45" s="156"/>
+      <c r="V45" s="157"/>
       <c r="W45" s="19"/>
       <c r="X45" s="5"/>
     </row>
     <row r="46" spans="1:24">
       <c r="A46" s="3"/>
-      <c r="B46" s="115"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="117"/>
-      <c r="E46" s="121"/>
-      <c r="F46" s="122"/>
-      <c r="G46" s="123"/>
-      <c r="H46" s="115"/>
-      <c r="I46" s="116"/>
-      <c r="J46" s="116"/>
-      <c r="K46" s="116"/>
-      <c r="L46" s="116"/>
-      <c r="M46" s="116"/>
-      <c r="N46" s="116"/>
-      <c r="O46" s="116"/>
-      <c r="P46" s="116"/>
-      <c r="Q46" s="116"/>
-      <c r="R46" s="116"/>
-      <c r="S46" s="117"/>
-      <c r="T46" s="115"/>
-      <c r="U46" s="116"/>
-      <c r="V46" s="117"/>
+      <c r="B46" s="155"/>
+      <c r="C46" s="156"/>
+      <c r="D46" s="157"/>
+      <c r="E46" s="158"/>
+      <c r="F46" s="159"/>
+      <c r="G46" s="160"/>
+      <c r="H46" s="155"/>
+      <c r="I46" s="156"/>
+      <c r="J46" s="156"/>
+      <c r="K46" s="156"/>
+      <c r="L46" s="156"/>
+      <c r="M46" s="156"/>
+      <c r="N46" s="156"/>
+      <c r="O46" s="156"/>
+      <c r="P46" s="156"/>
+      <c r="Q46" s="156"/>
+      <c r="R46" s="156"/>
+      <c r="S46" s="157"/>
+      <c r="T46" s="155"/>
+      <c r="U46" s="156"/>
+      <c r="V46" s="157"/>
       <c r="W46" s="19"/>
       <c r="X46" s="5"/>
     </row>
@@ -4731,35 +4731,50 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="H37:S37"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:S42"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:S46"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:S43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:S40"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:S41"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="H28:S28"/>
+    <mergeCell ref="H29:S29"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H30:S30"/>
+    <mergeCell ref="H31:S31"/>
+    <mergeCell ref="H32:S32"/>
+    <mergeCell ref="H33:S33"/>
+    <mergeCell ref="H34:S34"/>
+    <mergeCell ref="H35:S35"/>
+    <mergeCell ref="H36:S36"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="E7:N8"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T10"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="Q8:R10"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="Q5:V5"/>
     <mergeCell ref="B14:V16"/>
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="U8:V10"/>
@@ -4776,50 +4791,35 @@
     <mergeCell ref="H39:S39"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="E37:G37"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="E7:N8"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T10"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="Q8:R10"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H30:S30"/>
-    <mergeCell ref="H31:S31"/>
-    <mergeCell ref="H32:S32"/>
-    <mergeCell ref="H33:S33"/>
-    <mergeCell ref="H34:S34"/>
-    <mergeCell ref="H35:S35"/>
-    <mergeCell ref="H36:S36"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="Q4:V4"/>
-    <mergeCell ref="Q5:V5"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="H28:S28"/>
-    <mergeCell ref="H29:S29"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:S46"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:S43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:S44"/>
+    <mergeCell ref="H37:S37"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:S40"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:S41"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4865,13 +4865,13 @@
       <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="177" t="s">
+      <c r="C2" s="226" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="179"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="228"/>
       <c r="H2" s="33" t="s">
         <v>2</v>
       </c>
@@ -4884,13 +4884,13 @@
       <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="180" t="s">
+      <c r="C3" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="182"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="239"/>
       <c r="H3" s="37" t="s">
         <v>5</v>
       </c>
@@ -4903,13 +4903,13 @@
       <c r="B4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="237" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="182"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="238"/>
+      <c r="G4" s="239"/>
       <c r="H4" s="37" t="s">
         <v>25</v>
       </c>
@@ -4924,13 +4924,13 @@
       <c r="B5" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="180" t="s">
+      <c r="C5" s="237" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="182"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="239"/>
       <c r="H5" s="37" t="s">
         <v>9</v>
       </c>
@@ -4941,40 +4941,40 @@
       <c r="B6" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="180" t="s">
+      <c r="C6" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="182"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="239"/>
       <c r="H6" s="37" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="40"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A7" s="174" t="s">
+      <c r="A7" s="223" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="175"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="176"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="224"/>
+      <c r="I7" s="225"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="229" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="185" t="s">
+      <c r="B8" s="231" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="186"/>
-      <c r="D8" s="187"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="233"/>
       <c r="E8" s="43" t="s">
         <v>35</v>
       </c>
@@ -4986,11 +4986,11 @@
       <c r="I8" s="40"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A9" s="184"/>
-      <c r="B9" s="188"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="183" t="s">
+      <c r="A9" s="230"/>
+      <c r="B9" s="234"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="229" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="45" t="s">
@@ -5009,7 +5009,7 @@
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="35"/>
-      <c r="E10" s="184"/>
+      <c r="E10" s="230"/>
       <c r="F10" s="45" t="s">
         <v>36</v>
       </c>
@@ -5033,17 +5033,17 @@
       <c r="I11" s="40"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A12" s="174" t="s">
+      <c r="A12" s="223" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="175"/>
-      <c r="C12" s="175"/>
-      <c r="D12" s="175"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="175"/>
-      <c r="I12" s="176"/>
+      <c r="B12" s="224"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="224"/>
+      <c r="F12" s="224"/>
+      <c r="G12" s="224"/>
+      <c r="H12" s="224"/>
+      <c r="I12" s="225"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1">
       <c r="A13" s="43" t="s">
@@ -5151,16 +5151,16 @@
       <c r="A19" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="180" t="s">
+      <c r="B19" s="237" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="181"/>
-      <c r="D19" s="181"/>
-      <c r="E19" s="196"/>
-      <c r="F19" s="181"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="181"/>
-      <c r="I19" s="182"/>
+      <c r="C19" s="238"/>
+      <c r="D19" s="238"/>
+      <c r="E19" s="249"/>
+      <c r="F19" s="238"/>
+      <c r="G19" s="238"/>
+      <c r="H19" s="238"/>
+      <c r="I19" s="239"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="36" t="s">
@@ -5236,17 +5236,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:D9"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="B19:I19"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="B19:I19"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5292,13 +5292,13 @@
       <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="177" t="s">
+      <c r="C2" s="226" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="179"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="228"/>
       <c r="H2" s="33" t="s">
         <v>2</v>
       </c>
@@ -5311,13 +5311,13 @@
       <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="180" t="s">
+      <c r="C3" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="182"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="239"/>
       <c r="H3" s="37" t="s">
         <v>5</v>
       </c>
@@ -5330,13 +5330,13 @@
       <c r="B4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="237" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="182"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="238"/>
+      <c r="G4" s="239"/>
       <c r="H4" s="37" t="s">
         <v>25</v>
       </c>
@@ -5351,13 +5351,13 @@
       <c r="B5" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="180" t="s">
+      <c r="C5" s="237" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="182"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="239"/>
       <c r="H5" s="37" t="s">
         <v>9</v>
       </c>
@@ -5370,13 +5370,13 @@
       <c r="B6" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="180" t="s">
+      <c r="C6" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="182"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="239"/>
       <c r="H6" s="37" t="s">
         <v>10</v>
       </c>
@@ -5385,68 +5385,68 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
-      <c r="A7" s="174" t="s">
+      <c r="A7" s="223" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="175"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="176"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="224"/>
+      <c r="I7" s="225"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="229" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="185" t="s">
+      <c r="B8" s="231" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="186"/>
-      <c r="D8" s="187"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="233"/>
       <c r="E8" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="180" t="s">
+      <c r="F8" s="237" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="181"/>
-      <c r="H8" s="181"/>
-      <c r="I8" s="182"/>
+      <c r="G8" s="238"/>
+      <c r="H8" s="238"/>
+      <c r="I8" s="239"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
-      <c r="A9" s="184"/>
-      <c r="B9" s="188"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="183" t="s">
+      <c r="A9" s="230"/>
+      <c r="B9" s="234"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="229" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="180" t="s">
+      <c r="F9" s="237" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="181"/>
-      <c r="H9" s="181"/>
-      <c r="I9" s="182"/>
+      <c r="G9" s="238"/>
+      <c r="H9" s="238"/>
+      <c r="I9" s="239"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1">
       <c r="A10" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="180" t="s">
+      <c r="B10" s="237" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="181"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="184"/>
-      <c r="F10" s="180" t="s">
+      <c r="C10" s="238"/>
+      <c r="D10" s="239"/>
+      <c r="E10" s="230"/>
+      <c r="F10" s="237" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="182"/>
+      <c r="G10" s="238"/>
+      <c r="H10" s="238"/>
+      <c r="I10" s="239"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1">
       <c r="A11" s="47" t="s">
@@ -5464,17 +5464,17 @@
       <c r="I11" s="40"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1">
-      <c r="A12" s="174" t="s">
+      <c r="A12" s="223" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="175"/>
-      <c r="C12" s="175"/>
-      <c r="D12" s="175"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="175"/>
-      <c r="I12" s="176"/>
+      <c r="B12" s="224"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="224"/>
+      <c r="F12" s="224"/>
+      <c r="G12" s="224"/>
+      <c r="H12" s="224"/>
+      <c r="I12" s="225"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1">
       <c r="A13" s="43" t="s">
@@ -5548,16 +5548,16 @@
       <c r="A17" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="177" t="s">
+      <c r="B17" s="226" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="178"/>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="179"/>
+      <c r="C17" s="227"/>
+      <c r="D17" s="227"/>
+      <c r="E17" s="227"/>
+      <c r="F17" s="227"/>
+      <c r="G17" s="227"/>
+      <c r="H17" s="227"/>
+      <c r="I17" s="228"/>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1">
       <c r="A18" s="36" t="s">
@@ -5677,17 +5677,17 @@
       <c r="I26" s="60"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1">
-      <c r="A27" s="174" t="s">
+      <c r="A27" s="223" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="175"/>
-      <c r="C27" s="175"/>
-      <c r="D27" s="175"/>
-      <c r="E27" s="175"/>
-      <c r="F27" s="175"/>
-      <c r="G27" s="175"/>
-      <c r="H27" s="175"/>
-      <c r="I27" s="176"/>
+      <c r="B27" s="224"/>
+      <c r="C27" s="224"/>
+      <c r="D27" s="224"/>
+      <c r="E27" s="224"/>
+      <c r="F27" s="224"/>
+      <c r="G27" s="224"/>
+      <c r="H27" s="224"/>
+      <c r="I27" s="225"/>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1">
       <c r="A28" s="43" t="s">
@@ -5761,16 +5761,16 @@
       <c r="A32" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="177" t="s">
+      <c r="B32" s="226" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="178"/>
-      <c r="D32" s="178"/>
-      <c r="E32" s="178"/>
-      <c r="F32" s="178"/>
-      <c r="G32" s="178"/>
-      <c r="H32" s="178"/>
-      <c r="I32" s="179"/>
+      <c r="C32" s="227"/>
+      <c r="D32" s="227"/>
+      <c r="E32" s="227"/>
+      <c r="F32" s="227"/>
+      <c r="G32" s="227"/>
+      <c r="H32" s="227"/>
+      <c r="I32" s="228"/>
     </row>
     <row r="33" spans="1:9" ht="18" customHeight="1">
       <c r="A33" s="36" t="s">
@@ -5837,20 +5837,20 @@
       <c r="H37" s="27"/>
       <c r="I37" s="59"/>
     </row>
-    <row r="38" spans="1:9" s="208" customFormat="1">
+    <row r="38" spans="1:9" s="113" customFormat="1">
       <c r="A38" s="101">
         <v>3</v>
       </c>
-      <c r="B38" s="209" t="s">
-        <v>198</v>
-      </c>
-      <c r="C38" s="209"/>
-      <c r="D38" s="209"/>
-      <c r="E38" s="209"/>
-      <c r="F38" s="209"/>
-      <c r="G38" s="209"/>
-      <c r="H38" s="209"/>
-      <c r="I38" s="241"/>
+      <c r="B38" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="146"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="103"/>
@@ -5865,6 +5865,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
     <mergeCell ref="A27:I27"/>
     <mergeCell ref="B32:I32"/>
     <mergeCell ref="B17:I17"/>
@@ -5876,12 +5882,6 @@
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="F9:I9"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5927,13 +5927,13 @@
       <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="177" t="s">
+      <c r="C2" s="226" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="179"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="228"/>
       <c r="H2" s="33" t="s">
         <v>2</v>
       </c>
@@ -5946,13 +5946,13 @@
       <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="180" t="s">
+      <c r="C3" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="182"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="239"/>
       <c r="H3" s="37" t="s">
         <v>5</v>
       </c>
@@ -5965,13 +5965,13 @@
       <c r="B4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="237" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="182"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="238"/>
+      <c r="G4" s="239"/>
       <c r="H4" s="37" t="s">
         <v>25</v>
       </c>
@@ -5986,13 +5986,13 @@
       <c r="B5" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="180" t="s">
+      <c r="C5" s="237" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="182"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="239"/>
       <c r="H5" s="37" t="s">
         <v>9</v>
       </c>
@@ -6005,13 +6005,13 @@
       <c r="B6" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="180" t="s">
+      <c r="C6" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="182"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="239"/>
       <c r="H6" s="37" t="s">
         <v>10</v>
       </c>
@@ -6020,27 +6020,27 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A7" s="174" t="s">
+      <c r="A7" s="223" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="175"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="176"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="224"/>
+      <c r="I7" s="225"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="229" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="185" t="s">
+      <c r="B8" s="231" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="186"/>
-      <c r="D8" s="187"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="233"/>
       <c r="E8" s="43" t="s">
         <v>35</v>
       </c>
@@ -6052,11 +6052,11 @@
       <c r="I8" s="40"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A9" s="184"/>
-      <c r="B9" s="188"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="183" t="s">
+      <c r="A9" s="230"/>
+      <c r="B9" s="234"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="229" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="45" t="s">
@@ -6075,7 +6075,7 @@
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="35"/>
-      <c r="E10" s="184"/>
+      <c r="E10" s="230"/>
       <c r="F10" s="45" t="s">
         <v>36</v>
       </c>
@@ -6099,17 +6099,17 @@
       <c r="I11" s="40"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A12" s="174" t="s">
+      <c r="A12" s="223" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="175"/>
-      <c r="C12" s="175"/>
-      <c r="D12" s="175"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="175"/>
-      <c r="I12" s="176"/>
+      <c r="B12" s="224"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="224"/>
+      <c r="F12" s="224"/>
+      <c r="G12" s="224"/>
+      <c r="H12" s="224"/>
+      <c r="I12" s="225"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1">
       <c r="A13" s="43" t="s">
@@ -6183,16 +6183,16 @@
       <c r="A17" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="180" t="s">
+      <c r="B17" s="237" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="181"/>
-      <c r="D17" s="181"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="181"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="181"/>
-      <c r="I17" s="182"/>
+      <c r="C17" s="238"/>
+      <c r="D17" s="238"/>
+      <c r="E17" s="238"/>
+      <c r="F17" s="238"/>
+      <c r="G17" s="238"/>
+      <c r="H17" s="238"/>
+      <c r="I17" s="239"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="36" t="s">
@@ -6260,17 +6260,17 @@
       <c r="I22" s="59"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A23" s="174" t="s">
+      <c r="A23" s="223" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="175"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="175"/>
-      <c r="E23" s="175"/>
-      <c r="F23" s="175"/>
-      <c r="G23" s="175"/>
-      <c r="H23" s="175"/>
-      <c r="I23" s="176"/>
+      <c r="B23" s="224"/>
+      <c r="C23" s="224"/>
+      <c r="D23" s="224"/>
+      <c r="E23" s="224"/>
+      <c r="F23" s="224"/>
+      <c r="G23" s="224"/>
+      <c r="H23" s="224"/>
+      <c r="I23" s="225"/>
     </row>
     <row r="24" spans="1:9" ht="16.5" customHeight="1">
       <c r="A24" s="43" t="s">
@@ -6344,16 +6344,16 @@
       <c r="A28" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="180" t="s">
+      <c r="B28" s="237" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="181"/>
-      <c r="D28" s="181"/>
-      <c r="E28" s="181"/>
-      <c r="F28" s="181"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="181"/>
-      <c r="I28" s="182"/>
+      <c r="C28" s="238"/>
+      <c r="D28" s="238"/>
+      <c r="E28" s="238"/>
+      <c r="F28" s="238"/>
+      <c r="G28" s="238"/>
+      <c r="H28" s="238"/>
+      <c r="I28" s="239"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="36" t="s">
@@ -6398,42 +6398,42 @@
       <c r="A32" s="108">
         <v>2</v>
       </c>
-      <c r="B32" s="202" t="s">
+      <c r="B32" s="243" t="s">
         <v>162</v>
       </c>
-      <c r="C32" s="191"/>
-      <c r="D32" s="191"/>
-      <c r="E32" s="191"/>
-      <c r="F32" s="191"/>
-      <c r="G32" s="191"/>
-      <c r="H32" s="191"/>
-      <c r="I32" s="192"/>
+      <c r="C32" s="244"/>
+      <c r="D32" s="244"/>
+      <c r="E32" s="244"/>
+      <c r="F32" s="244"/>
+      <c r="G32" s="244"/>
+      <c r="H32" s="244"/>
+      <c r="I32" s="245"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="108"/>
-      <c r="B33" s="200"/>
-      <c r="C33" s="200"/>
-      <c r="D33" s="200"/>
-      <c r="E33" s="200"/>
-      <c r="F33" s="200"/>
-      <c r="G33" s="200"/>
-      <c r="H33" s="200"/>
-      <c r="I33" s="201"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="110"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="108">
         <v>3</v>
       </c>
-      <c r="B34" s="202" t="s">
+      <c r="B34" s="243" t="s">
         <v>161</v>
       </c>
-      <c r="C34" s="191"/>
-      <c r="D34" s="191"/>
-      <c r="E34" s="191"/>
-      <c r="F34" s="191"/>
-      <c r="G34" s="191"/>
-      <c r="H34" s="191"/>
-      <c r="I34" s="192"/>
+      <c r="C34" s="244"/>
+      <c r="D34" s="244"/>
+      <c r="E34" s="244"/>
+      <c r="F34" s="244"/>
+      <c r="G34" s="244"/>
+      <c r="H34" s="244"/>
+      <c r="I34" s="245"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="108"/>
@@ -6450,27 +6450,27 @@
       <c r="A36" s="108">
         <v>4</v>
       </c>
-      <c r="B36" s="202" t="s">
+      <c r="B36" s="243" t="s">
         <v>164</v>
       </c>
-      <c r="C36" s="191"/>
-      <c r="D36" s="191"/>
-      <c r="E36" s="191"/>
-      <c r="F36" s="191"/>
-      <c r="G36" s="191"/>
-      <c r="H36" s="191"/>
-      <c r="I36" s="192"/>
+      <c r="C36" s="244"/>
+      <c r="D36" s="244"/>
+      <c r="E36" s="244"/>
+      <c r="F36" s="244"/>
+      <c r="G36" s="244"/>
+      <c r="H36" s="244"/>
+      <c r="I36" s="245"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="108"/>
-      <c r="B37" s="200"/>
-      <c r="C37" s="200"/>
-      <c r="D37" s="200"/>
-      <c r="E37" s="200"/>
-      <c r="F37" s="200"/>
-      <c r="G37" s="200"/>
-      <c r="H37" s="200"/>
-      <c r="I37" s="201"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="109"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="110"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="105" t="s">
@@ -6527,27 +6527,27 @@
       <c r="A42" s="108">
         <v>5</v>
       </c>
-      <c r="B42" s="202" t="s">
+      <c r="B42" s="243" t="s">
         <v>168</v>
       </c>
-      <c r="C42" s="191"/>
-      <c r="D42" s="191"/>
-      <c r="E42" s="191"/>
-      <c r="F42" s="191"/>
-      <c r="G42" s="191"/>
-      <c r="H42" s="191"/>
-      <c r="I42" s="192"/>
+      <c r="C42" s="244"/>
+      <c r="D42" s="244"/>
+      <c r="E42" s="244"/>
+      <c r="F42" s="244"/>
+      <c r="G42" s="244"/>
+      <c r="H42" s="244"/>
+      <c r="I42" s="245"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="108"/>
-      <c r="B43" s="203"/>
-      <c r="C43" s="200"/>
-      <c r="D43" s="200"/>
-      <c r="E43" s="200"/>
-      <c r="F43" s="200"/>
-      <c r="G43" s="200"/>
-      <c r="H43" s="200"/>
-      <c r="I43" s="201"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="109"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="109"/>
+      <c r="I43" s="110"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="107">
@@ -6644,11 +6644,11 @@
       <c r="A51" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B51" s="180" t="s">
+      <c r="B51" s="237" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="181"/>
-      <c r="D51" s="181"/>
+      <c r="C51" s="238"/>
+      <c r="D51" s="238"/>
       <c r="E51" s="78"/>
       <c r="F51" s="92"/>
       <c r="G51" s="92"/>
@@ -6757,20 +6757,20 @@
       <c r="A58" s="101">
         <v>1</v>
       </c>
-      <c r="B58" s="204" t="s">
+      <c r="B58" s="240" t="s">
         <v>170</v>
       </c>
-      <c r="C58" s="205"/>
-      <c r="D58" s="205"/>
-      <c r="E58" s="205"/>
-      <c r="F58" s="205"/>
-      <c r="G58" s="205"/>
-      <c r="H58" s="205"/>
-      <c r="I58" s="206"/>
+      <c r="C58" s="241"/>
+      <c r="D58" s="241"/>
+      <c r="E58" s="241"/>
+      <c r="F58" s="241"/>
+      <c r="G58" s="241"/>
+      <c r="H58" s="241"/>
+      <c r="I58" s="242"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="104"/>
-      <c r="B59" s="207"/>
+      <c r="B59" s="112"/>
       <c r="C59" s="98"/>
       <c r="D59" s="98"/>
       <c r="E59" s="98"/>
@@ -6783,16 +6783,16 @@
       <c r="A60" s="101">
         <v>2</v>
       </c>
-      <c r="B60" s="202" t="s">
+      <c r="B60" s="243" t="s">
         <v>171</v>
       </c>
-      <c r="C60" s="191"/>
-      <c r="D60" s="191"/>
-      <c r="E60" s="191"/>
-      <c r="F60" s="191"/>
-      <c r="G60" s="191"/>
-      <c r="H60" s="191"/>
-      <c r="I60" s="192"/>
+      <c r="C60" s="244"/>
+      <c r="D60" s="244"/>
+      <c r="E60" s="244"/>
+      <c r="F60" s="244"/>
+      <c r="G60" s="244"/>
+      <c r="H60" s="244"/>
+      <c r="I60" s="245"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="104"/>
@@ -6835,16 +6835,16 @@
       <c r="A64" s="101">
         <v>4</v>
       </c>
-      <c r="B64" s="191" t="s">
+      <c r="B64" s="244" t="s">
         <v>115</v>
       </c>
-      <c r="C64" s="191"/>
-      <c r="D64" s="191"/>
-      <c r="E64" s="191"/>
-      <c r="F64" s="191"/>
-      <c r="G64" s="191"/>
-      <c r="H64" s="191"/>
-      <c r="I64" s="192"/>
+      <c r="C64" s="244"/>
+      <c r="D64" s="244"/>
+      <c r="E64" s="244"/>
+      <c r="F64" s="244"/>
+      <c r="G64" s="244"/>
+      <c r="H64" s="244"/>
+      <c r="I64" s="245"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="104"/>
@@ -6911,15 +6911,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="B42:I42"/>
-    <mergeCell ref="B51:D51"/>
     <mergeCell ref="B64:I64"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="C2:G2"/>
@@ -6932,6 +6923,15 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="A23:I23"/>
     <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="B42:I42"/>
+    <mergeCell ref="B51:D51"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6977,13 +6977,13 @@
       <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="177" t="s">
+      <c r="C2" s="226" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="179"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="228"/>
       <c r="H2" s="33" t="s">
         <v>2</v>
       </c>
@@ -6996,13 +6996,13 @@
       <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="180" t="s">
+      <c r="C3" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="182"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="239"/>
       <c r="H3" s="37" t="s">
         <v>5</v>
       </c>
@@ -7015,13 +7015,13 @@
       <c r="B4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="237" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="182"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="238"/>
+      <c r="G4" s="239"/>
       <c r="H4" s="37" t="s">
         <v>25</v>
       </c>
@@ -7036,13 +7036,13 @@
       <c r="B5" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="180" t="s">
+      <c r="C5" s="237" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="182"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="239"/>
       <c r="H5" s="37" t="s">
         <v>9</v>
       </c>
@@ -7055,13 +7055,13 @@
       <c r="B6" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="180" t="s">
+      <c r="C6" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="182"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="239"/>
       <c r="H6" s="37" t="s">
         <v>10</v>
       </c>
@@ -7070,27 +7070,27 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.95" customHeight="1">
-      <c r="A7" s="174" t="s">
+      <c r="A7" s="223" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="175"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="176"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="224"/>
+      <c r="I7" s="225"/>
     </row>
     <row r="8" spans="1:9" ht="19.95" customHeight="1">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="229" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="185" t="s">
+      <c r="B8" s="231" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="186"/>
-      <c r="D8" s="187"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="233"/>
       <c r="E8" s="43" t="s">
         <v>35</v>
       </c>
@@ -7102,11 +7102,11 @@
       <c r="I8" s="40"/>
     </row>
     <row r="9" spans="1:9" ht="19.95" customHeight="1">
-      <c r="A9" s="184"/>
-      <c r="B9" s="188"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="183" t="s">
+      <c r="A9" s="230"/>
+      <c r="B9" s="234"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="229" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="45" t="s">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="35"/>
-      <c r="E10" s="184"/>
+      <c r="E10" s="230"/>
       <c r="F10" s="45" t="s">
         <v>36</v>
       </c>
@@ -7149,17 +7149,17 @@
       <c r="I11" s="40"/>
     </row>
     <row r="12" spans="1:9" ht="19.95" customHeight="1">
-      <c r="A12" s="174" t="s">
+      <c r="A12" s="223" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="175"/>
-      <c r="C12" s="175"/>
-      <c r="D12" s="175"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="175"/>
-      <c r="I12" s="176"/>
+      <c r="B12" s="224"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="224"/>
+      <c r="F12" s="224"/>
+      <c r="G12" s="224"/>
+      <c r="H12" s="224"/>
+      <c r="I12" s="225"/>
     </row>
     <row r="13" spans="1:9" ht="19.95" customHeight="1">
       <c r="A13" s="43" t="s">
@@ -7233,16 +7233,16 @@
       <c r="A17" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="180" t="s">
+      <c r="B17" s="237" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="181"/>
-      <c r="D17" s="181"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="181"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="181"/>
-      <c r="I17" s="182"/>
+      <c r="C17" s="238"/>
+      <c r="D17" s="238"/>
+      <c r="E17" s="238"/>
+      <c r="F17" s="238"/>
+      <c r="G17" s="238"/>
+      <c r="H17" s="238"/>
+      <c r="I17" s="239"/>
     </row>
     <row r="18" spans="1:9" ht="19.95" customHeight="1">
       <c r="A18" s="36" t="s">
@@ -7310,17 +7310,17 @@
       <c r="I22" s="59"/>
     </row>
     <row r="23" spans="1:9" ht="19.95" customHeight="1">
-      <c r="A23" s="174" t="s">
+      <c r="A23" s="223" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="175"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="175"/>
-      <c r="E23" s="175"/>
-      <c r="F23" s="175"/>
-      <c r="G23" s="175"/>
-      <c r="H23" s="175"/>
-      <c r="I23" s="176"/>
+      <c r="B23" s="224"/>
+      <c r="C23" s="224"/>
+      <c r="D23" s="224"/>
+      <c r="E23" s="224"/>
+      <c r="F23" s="224"/>
+      <c r="G23" s="224"/>
+      <c r="H23" s="224"/>
+      <c r="I23" s="225"/>
     </row>
     <row r="24" spans="1:9" ht="19.95" customHeight="1">
       <c r="A24" s="43" t="s">
@@ -7394,16 +7394,16 @@
       <c r="A28" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="180" t="s">
+      <c r="B28" s="237" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="181"/>
-      <c r="D28" s="181"/>
-      <c r="E28" s="181"/>
-      <c r="F28" s="181"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="181"/>
-      <c r="I28" s="182"/>
+      <c r="C28" s="238"/>
+      <c r="D28" s="238"/>
+      <c r="E28" s="238"/>
+      <c r="F28" s="238"/>
+      <c r="G28" s="238"/>
+      <c r="H28" s="238"/>
+      <c r="I28" s="239"/>
     </row>
     <row r="29" spans="1:9" ht="19.95" customHeight="1">
       <c r="A29" s="36" t="s">
@@ -7448,16 +7448,16 @@
       <c r="A32" s="101">
         <v>2</v>
       </c>
-      <c r="B32" s="202" t="s">
+      <c r="B32" s="243" t="s">
         <v>174</v>
       </c>
-      <c r="C32" s="191"/>
-      <c r="D32" s="191"/>
-      <c r="E32" s="191"/>
-      <c r="F32" s="191"/>
-      <c r="G32" s="191"/>
-      <c r="H32" s="191"/>
-      <c r="I32" s="192"/>
+      <c r="C32" s="244"/>
+      <c r="D32" s="244"/>
+      <c r="E32" s="244"/>
+      <c r="F32" s="244"/>
+      <c r="G32" s="244"/>
+      <c r="H32" s="244"/>
+      <c r="I32" s="245"/>
     </row>
     <row r="33" spans="1:9" ht="19.95" customHeight="1">
       <c r="A33" s="101"/>
@@ -7539,11 +7539,11 @@
       <c r="A39" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="180" t="s">
+      <c r="B39" s="237" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="181"/>
-      <c r="D39" s="181"/>
+      <c r="C39" s="238"/>
+      <c r="D39" s="238"/>
       <c r="E39" s="78"/>
       <c r="F39" s="72"/>
       <c r="G39" s="72"/>
@@ -7652,27 +7652,27 @@
       <c r="A46" s="101">
         <v>1</v>
       </c>
-      <c r="B46" s="191" t="s">
+      <c r="B46" s="244" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="191"/>
-      <c r="D46" s="191"/>
-      <c r="E46" s="191"/>
-      <c r="F46" s="191"/>
-      <c r="G46" s="191"/>
-      <c r="H46" s="191"/>
-      <c r="I46" s="192"/>
+      <c r="C46" s="244"/>
+      <c r="D46" s="244"/>
+      <c r="E46" s="244"/>
+      <c r="F46" s="244"/>
+      <c r="G46" s="244"/>
+      <c r="H46" s="244"/>
+      <c r="I46" s="245"/>
     </row>
     <row r="47" spans="1:9" ht="19.95" customHeight="1">
       <c r="A47" s="104"/>
-      <c r="B47" s="191"/>
-      <c r="C47" s="191"/>
-      <c r="D47" s="191"/>
-      <c r="E47" s="191"/>
-      <c r="F47" s="191"/>
-      <c r="G47" s="191"/>
-      <c r="H47" s="191"/>
-      <c r="I47" s="192"/>
+      <c r="B47" s="244"/>
+      <c r="C47" s="244"/>
+      <c r="D47" s="244"/>
+      <c r="E47" s="244"/>
+      <c r="F47" s="244"/>
+      <c r="G47" s="244"/>
+      <c r="H47" s="244"/>
+      <c r="I47" s="245"/>
     </row>
     <row r="48" spans="1:9" ht="19.95" customHeight="1">
       <c r="A48" s="101"/>
@@ -7715,16 +7715,16 @@
       <c r="A51" s="106" t="s">
         <v>114</v>
       </c>
-      <c r="B51" s="191" t="s">
+      <c r="B51" s="244" t="s">
         <v>115</v>
       </c>
-      <c r="C51" s="191"/>
-      <c r="D51" s="191"/>
-      <c r="E51" s="191"/>
-      <c r="F51" s="191"/>
-      <c r="G51" s="191"/>
-      <c r="H51" s="191"/>
-      <c r="I51" s="192"/>
+      <c r="C51" s="244"/>
+      <c r="D51" s="244"/>
+      <c r="E51" s="244"/>
+      <c r="F51" s="244"/>
+      <c r="G51" s="244"/>
+      <c r="H51" s="244"/>
+      <c r="I51" s="245"/>
     </row>
     <row r="52" spans="1:9" ht="19.95" customHeight="1">
       <c r="A52" s="101"/>
@@ -7791,6 +7791,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B46:I47"/>
     <mergeCell ref="B51:I51"/>
@@ -7802,12 +7808,6 @@
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B32:I32"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7822,8 +7822,8 @@
   </sheetPr>
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A49" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.69921875" defaultRowHeight="18"/>
@@ -7834,1007 +7834,1013 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="212"/>
-      <c r="I1" s="213"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="118"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="215" t="s">
+      <c r="B2" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="177" t="s">
+      <c r="C2" s="226" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="214" t="s">
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="228"/>
+      <c r="H2" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="216" t="s">
+      <c r="I2" s="121" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="214"/>
-      <c r="B3" s="217" t="s">
+      <c r="A3" s="119"/>
+      <c r="B3" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="180" t="s">
+      <c r="C3" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="218" t="s">
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="239"/>
+      <c r="H3" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="219">
+      <c r="I3" s="124">
         <v>43723</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="220"/>
-      <c r="B4" s="217" t="s">
+      <c r="A4" s="125"/>
+      <c r="B4" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="237" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="182"/>
-      <c r="H4" s="218" t="s">
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="238"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="221" t="s">
+      <c r="I4" s="126" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="222" t="s">
+      <c r="A5" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="217" t="s">
+      <c r="B5" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="180" t="s">
+      <c r="C5" s="237" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="218" t="s">
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="239"/>
+      <c r="H5" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="221" t="s">
+      <c r="I5" s="126" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="223"/>
-      <c r="B6" s="217" t="s">
+      <c r="A6" s="128"/>
+      <c r="B6" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="180" t="s">
+      <c r="C6" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="218" t="s">
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="239"/>
+      <c r="H6" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="219">
+      <c r="I6" s="124">
         <v>43732</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A7" s="174" t="s">
+      <c r="A7" s="223" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="175"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="176"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="224"/>
+      <c r="I7" s="225"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="229" t="s">
         <v>176</v>
       </c>
-      <c r="B8" s="185" t="s">
+      <c r="B8" s="231" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="186"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="224" t="s">
+      <c r="C8" s="232"/>
+      <c r="D8" s="233"/>
+      <c r="E8" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="225" t="s">
+      <c r="F8" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="225"/>
-      <c r="H8" s="225"/>
-      <c r="I8" s="221"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="126"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A9" s="184"/>
-      <c r="B9" s="188"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="183" t="s">
+      <c r="A9" s="230"/>
+      <c r="B9" s="234"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="229" t="s">
         <v>178</v>
       </c>
-      <c r="F9" s="226" t="s">
+      <c r="F9" s="131" t="s">
         <v>179</v>
       </c>
-      <c r="G9" s="225"/>
-      <c r="H9" s="225"/>
-      <c r="I9" s="221"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="126"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A10" s="224" t="s">
+      <c r="A10" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="226" t="s">
+      <c r="B10" s="131" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="227"/>
-      <c r="D10" s="216"/>
-      <c r="E10" s="184"/>
-      <c r="F10" s="226" t="s">
+      <c r="C10" s="132"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="230"/>
+      <c r="F10" s="131" t="s">
         <v>179</v>
       </c>
-      <c r="G10" s="227"/>
-      <c r="H10" s="227"/>
-      <c r="I10" s="216"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="121"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A11" s="228" t="s">
+      <c r="A11" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="210" t="s">
+      <c r="B11" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="225"/>
-      <c r="D11" s="225"/>
-      <c r="E11" s="225"/>
-      <c r="F11" s="225"/>
-      <c r="G11" s="225"/>
-      <c r="H11" s="225"/>
-      <c r="I11" s="221"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="126"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A12" s="174" t="s">
+      <c r="A12" s="223" t="s">
         <v>180</v>
       </c>
-      <c r="B12" s="175"/>
-      <c r="C12" s="175"/>
-      <c r="D12" s="175"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="175"/>
-      <c r="I12" s="176"/>
+      <c r="B12" s="224"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="224"/>
+      <c r="F12" s="224"/>
+      <c r="G12" s="224"/>
+      <c r="H12" s="224"/>
+      <c r="I12" s="225"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A13" s="224" t="s">
+      <c r="A13" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="232" t="s">
+      <c r="B13" s="137" t="s">
         <v>181</v>
       </c>
-      <c r="C13" s="232"/>
-      <c r="D13" s="232"/>
-      <c r="E13" s="232"/>
-      <c r="F13" s="232"/>
-      <c r="G13" s="232"/>
-      <c r="H13" s="232"/>
-      <c r="I13" s="231"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="136"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A14" s="233" t="s">
+      <c r="A14" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="226" t="s">
+      <c r="B14" s="131" t="s">
         <v>179</v>
       </c>
-      <c r="C14" s="227"/>
-      <c r="D14" s="216"/>
-      <c r="E14" s="234" t="s">
+      <c r="C14" s="132"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="210" t="s">
+      <c r="F14" s="115" t="s">
         <v>179</v>
       </c>
-      <c r="G14" s="225"/>
-      <c r="H14" s="225"/>
-      <c r="I14" s="221"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="126"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A15" s="233" t="s">
+      <c r="A15" s="138" t="s">
         <v>178</v>
       </c>
-      <c r="B15" s="235" t="s">
+      <c r="B15" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="236"/>
-      <c r="D15" s="237"/>
-      <c r="E15" s="230" t="s">
+      <c r="C15" s="141"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="230"/>
-      <c r="G15" s="230"/>
-      <c r="H15" s="230"/>
-      <c r="I15" s="229"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="134"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A16" s="235" t="s">
+      <c r="A16" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="210" t="s">
+      <c r="B16" s="115" t="s">
         <v>182</v>
       </c>
-      <c r="C16" s="225"/>
-      <c r="D16" s="221"/>
-      <c r="E16" s="209" t="s">
+      <c r="C16" s="130"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="F16" s="225"/>
-      <c r="G16" s="225"/>
-      <c r="H16" s="225"/>
-      <c r="I16" s="221"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="126"/>
     </row>
     <row r="17" spans="1:9" ht="20.399999999999999" customHeight="1">
-      <c r="A17" s="239" t="s">
+      <c r="A17" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="180" t="s">
+      <c r="B17" s="237" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="181"/>
-      <c r="D17" s="181"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="181"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="181"/>
-      <c r="I17" s="182"/>
+      <c r="C17" s="238"/>
+      <c r="D17" s="238"/>
+      <c r="E17" s="238"/>
+      <c r="F17" s="238"/>
+      <c r="G17" s="238"/>
+      <c r="H17" s="238"/>
+      <c r="I17" s="239"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="226" t="s">
+      <c r="A18" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="227"/>
-      <c r="C18" s="227"/>
-      <c r="D18" s="227"/>
-      <c r="E18" s="227"/>
-      <c r="F18" s="227"/>
-      <c r="G18" s="227"/>
-      <c r="H18" s="227"/>
-      <c r="I18" s="216"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="121"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="240">
+      <c r="A19" s="145">
         <v>1</v>
       </c>
-      <c r="B19" s="209" t="s">
+      <c r="B19" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="209"/>
-      <c r="D19" s="209"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="209"/>
-      <c r="G19" s="209"/>
-      <c r="H19" s="209"/>
-      <c r="I19" s="241"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="146"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="240"/>
-      <c r="B20" s="209"/>
-      <c r="C20" s="209"/>
-      <c r="D20" s="209"/>
-      <c r="E20" s="209"/>
-      <c r="F20" s="209"/>
-      <c r="G20" s="209"/>
-      <c r="H20" s="209"/>
-      <c r="I20" s="241"/>
+      <c r="A20" s="145"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="146"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="240">
+      <c r="A21" s="145">
         <v>2</v>
       </c>
-      <c r="B21" s="209" t="s">
+      <c r="B21" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="209"/>
-      <c r="D21" s="209"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="209"/>
-      <c r="G21" s="209"/>
-      <c r="H21" s="209"/>
-      <c r="I21" s="241"/>
-    </row>
-    <row r="22" spans="1:9" s="208" customFormat="1">
-      <c r="A22" s="240"/>
-      <c r="B22" s="209"/>
-      <c r="C22" s="209"/>
-      <c r="D22" s="209"/>
-      <c r="E22" s="209"/>
-      <c r="F22" s="209"/>
-      <c r="G22" s="209"/>
-      <c r="H22" s="209"/>
-      <c r="I22" s="241"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="146"/>
+    </row>
+    <row r="22" spans="1:9" s="113" customFormat="1">
+      <c r="A22" s="145"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="146"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="240">
+      <c r="A23" s="145">
         <v>3</v>
       </c>
-      <c r="B23" s="209" t="s">
+      <c r="B23" s="114" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="209"/>
-      <c r="D23" s="209"/>
-      <c r="E23" s="209"/>
-      <c r="F23" s="209"/>
-      <c r="G23" s="209"/>
-      <c r="H23" s="209"/>
-      <c r="I23" s="241"/>
-    </row>
-    <row r="25" spans="1:9" s="208" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A25" s="174" t="s">
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="146"/>
+    </row>
+    <row r="25" spans="1:9" s="113" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A25" s="223" t="s">
         <v>180</v>
       </c>
-      <c r="B25" s="175"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="175"/>
-      <c r="I25" s="176"/>
-    </row>
-    <row r="26" spans="1:9" s="208" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A26" s="224" t="s">
+      <c r="B25" s="224"/>
+      <c r="C25" s="224"/>
+      <c r="D25" s="224"/>
+      <c r="E25" s="224"/>
+      <c r="F25" s="224"/>
+      <c r="G25" s="224"/>
+      <c r="H25" s="224"/>
+      <c r="I25" s="225"/>
+    </row>
+    <row r="26" spans="1:9" s="113" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A26" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="232" t="s">
+      <c r="B26" s="137" t="s">
         <v>190</v>
       </c>
-      <c r="C26" s="232"/>
-      <c r="D26" s="232"/>
-      <c r="E26" s="232"/>
-      <c r="F26" s="232"/>
-      <c r="G26" s="232"/>
-      <c r="H26" s="232"/>
-      <c r="I26" s="231"/>
-    </row>
-    <row r="27" spans="1:9" s="208" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A27" s="233" t="s">
+      <c r="C26" s="137"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="136"/>
+    </row>
+    <row r="27" spans="1:9" s="113" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A27" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="226" t="s">
+      <c r="B27" s="131" t="s">
         <v>179</v>
       </c>
-      <c r="C27" s="227"/>
-      <c r="D27" s="216"/>
-      <c r="E27" s="234" t="s">
+      <c r="C27" s="132"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="210" t="s">
+      <c r="F27" s="115" t="s">
         <v>179</v>
       </c>
-      <c r="G27" s="225"/>
-      <c r="H27" s="225"/>
-      <c r="I27" s="221"/>
-    </row>
-    <row r="28" spans="1:9" s="208" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A28" s="233" t="s">
+      <c r="G27" s="130"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="126"/>
+    </row>
+    <row r="28" spans="1:9" s="113" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A28" s="138" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="235" t="s">
+      <c r="B28" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="236"/>
-      <c r="D28" s="237"/>
-      <c r="E28" s="230" t="s">
+      <c r="C28" s="141"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="230"/>
-      <c r="G28" s="230"/>
-      <c r="H28" s="230"/>
-      <c r="I28" s="229"/>
-    </row>
-    <row r="29" spans="1:9" s="208" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A29" s="235" t="s">
+      <c r="F28" s="135"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="134"/>
+    </row>
+    <row r="29" spans="1:9" s="113" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A29" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="210" t="s">
+      <c r="B29" s="115" t="s">
         <v>182</v>
       </c>
-      <c r="C29" s="225"/>
-      <c r="D29" s="221"/>
-      <c r="E29" s="209" t="s">
+      <c r="C29" s="130"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="F29" s="225"/>
-      <c r="G29" s="225"/>
-      <c r="H29" s="225"/>
-      <c r="I29" s="221"/>
-    </row>
-    <row r="30" spans="1:9" s="208" customFormat="1" ht="20.399999999999999" customHeight="1">
-      <c r="A30" s="239" t="s">
+      <c r="F29" s="130"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="126"/>
+    </row>
+    <row r="30" spans="1:9" s="113" customFormat="1" ht="20.399999999999999" customHeight="1">
+      <c r="A30" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="180" t="s">
+      <c r="B30" s="237" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="181"/>
-      <c r="D30" s="181"/>
-      <c r="E30" s="181"/>
-      <c r="F30" s="181"/>
-      <c r="G30" s="181"/>
-      <c r="H30" s="181"/>
-      <c r="I30" s="182"/>
-    </row>
-    <row r="31" spans="1:9" s="208" customFormat="1">
-      <c r="A31" s="226" t="s">
+      <c r="C30" s="238"/>
+      <c r="D30" s="238"/>
+      <c r="E30" s="238"/>
+      <c r="F30" s="238"/>
+      <c r="G30" s="238"/>
+      <c r="H30" s="238"/>
+      <c r="I30" s="239"/>
+    </row>
+    <row r="31" spans="1:9" s="113" customFormat="1">
+      <c r="A31" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="227"/>
-      <c r="C31" s="227"/>
-      <c r="D31" s="227"/>
-      <c r="E31" s="227"/>
-      <c r="F31" s="227"/>
-      <c r="G31" s="227"/>
-      <c r="H31" s="227"/>
-      <c r="I31" s="216"/>
-    </row>
-    <row r="32" spans="1:9" s="208" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="240">
+      <c r="B31" s="132"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="121"/>
+    </row>
+    <row r="32" spans="1:9" s="113" customFormat="1" ht="18" customHeight="1">
+      <c r="A32" s="145">
         <v>1</v>
       </c>
-      <c r="B32" s="191" t="s">
+      <c r="B32" s="244" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="191"/>
-      <c r="D32" s="191"/>
-      <c r="E32" s="191"/>
-      <c r="F32" s="191"/>
-      <c r="G32" s="191"/>
-      <c r="H32" s="191"/>
-      <c r="I32" s="241"/>
-    </row>
-    <row r="33" spans="1:9" s="208" customFormat="1">
-      <c r="A33" s="240"/>
-      <c r="B33" s="191"/>
-      <c r="C33" s="191"/>
-      <c r="D33" s="191"/>
-      <c r="E33" s="191"/>
-      <c r="F33" s="191"/>
-      <c r="G33" s="191"/>
-      <c r="H33" s="191"/>
-      <c r="I33" s="241"/>
-    </row>
-    <row r="34" spans="1:9" s="208" customFormat="1">
-      <c r="A34" s="240"/>
-      <c r="B34" s="247"/>
-      <c r="C34" s="247"/>
-      <c r="D34" s="247"/>
-      <c r="E34" s="247"/>
-      <c r="F34" s="247"/>
-      <c r="G34" s="247"/>
-      <c r="H34" s="247"/>
-      <c r="I34" s="241"/>
-    </row>
-    <row r="35" spans="1:9" s="208" customFormat="1">
-      <c r="A35" s="240">
+      <c r="C32" s="244"/>
+      <c r="D32" s="244"/>
+      <c r="E32" s="244"/>
+      <c r="F32" s="244"/>
+      <c r="G32" s="244"/>
+      <c r="H32" s="244"/>
+      <c r="I32" s="146"/>
+    </row>
+    <row r="33" spans="1:9" s="113" customFormat="1">
+      <c r="A33" s="145"/>
+      <c r="B33" s="244"/>
+      <c r="C33" s="244"/>
+      <c r="D33" s="244"/>
+      <c r="E33" s="244"/>
+      <c r="F33" s="244"/>
+      <c r="G33" s="244"/>
+      <c r="H33" s="244"/>
+      <c r="I33" s="146"/>
+    </row>
+    <row r="34" spans="1:9" s="113" customFormat="1">
+      <c r="A34" s="145"/>
+      <c r="B34" s="152"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="146"/>
+    </row>
+    <row r="35" spans="1:9" s="113" customFormat="1">
+      <c r="A35" s="145">
         <v>2</v>
       </c>
-      <c r="B35" s="247" t="s">
+      <c r="B35" s="152" t="s">
         <v>184</v>
       </c>
-      <c r="C35" s="247"/>
-      <c r="D35" s="247"/>
-      <c r="E35" s="247"/>
-      <c r="F35" s="247"/>
-      <c r="G35" s="247"/>
-      <c r="H35" s="247"/>
-      <c r="I35" s="241"/>
-    </row>
-    <row r="36" spans="1:9" s="208" customFormat="1">
-      <c r="A36" s="240"/>
-      <c r="B36" s="247"/>
-      <c r="C36" s="247"/>
-      <c r="D36" s="247"/>
-      <c r="E36" s="247"/>
-      <c r="F36" s="247"/>
-      <c r="G36" s="247"/>
-      <c r="H36" s="247"/>
-      <c r="I36" s="241"/>
-    </row>
-    <row r="37" spans="1:9" s="208" customFormat="1">
-      <c r="A37" s="244" t="s">
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="146"/>
+    </row>
+    <row r="36" spans="1:9" s="113" customFormat="1">
+      <c r="A36" s="145"/>
+      <c r="B36" s="152"/>
+      <c r="C36" s="152"/>
+      <c r="D36" s="152"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="152"/>
+      <c r="I36" s="146"/>
+    </row>
+    <row r="37" spans="1:9" s="113" customFormat="1">
+      <c r="A37" s="149" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="152" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="152"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="152"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="152"/>
+      <c r="I37" s="146"/>
+    </row>
+    <row r="38" spans="1:9" s="113" customFormat="1">
+      <c r="A38" s="148"/>
+      <c r="B38" s="152"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="146"/>
+    </row>
+    <row r="39" spans="1:9" s="113" customFormat="1">
+      <c r="A39" s="153" t="s">
         <v>192</v>
       </c>
-      <c r="B37" s="247" t="s">
-        <v>185</v>
-      </c>
-      <c r="C37" s="247"/>
-      <c r="D37" s="247"/>
-      <c r="E37" s="247"/>
-      <c r="F37" s="247"/>
-      <c r="G37" s="247"/>
-      <c r="H37" s="247"/>
-      <c r="I37" s="241"/>
-    </row>
-    <row r="38" spans="1:9" s="208" customFormat="1">
-      <c r="A38" s="243"/>
-      <c r="B38" s="247"/>
-      <c r="C38" s="247"/>
-      <c r="D38" s="247"/>
-      <c r="E38" s="247"/>
-      <c r="F38" s="247"/>
-      <c r="G38" s="247"/>
-      <c r="H38" s="247"/>
-      <c r="I38" s="241"/>
-    </row>
-    <row r="39" spans="1:9" s="208" customFormat="1">
-      <c r="A39" s="248" t="s">
+      <c r="B39" s="152" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="146"/>
+    </row>
+    <row r="40" spans="1:9" s="113" customFormat="1">
+      <c r="A40" s="153"/>
+      <c r="B40" s="152"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="152"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="152"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="152"/>
+      <c r="I40" s="146"/>
+    </row>
+    <row r="41" spans="1:9" s="113" customFormat="1">
+      <c r="A41" s="153" t="s">
         <v>193</v>
       </c>
-      <c r="B39" s="247" t="s">
-        <v>186</v>
-      </c>
-      <c r="C39" s="247"/>
-      <c r="D39" s="247"/>
-      <c r="E39" s="247"/>
-      <c r="F39" s="247"/>
-      <c r="G39" s="247"/>
-      <c r="H39" s="247"/>
-      <c r="I39" s="241"/>
-    </row>
-    <row r="40" spans="1:9" s="208" customFormat="1">
-      <c r="A40" s="248"/>
-      <c r="B40" s="247"/>
-      <c r="C40" s="247"/>
-      <c r="D40" s="247"/>
-      <c r="E40" s="247"/>
-      <c r="F40" s="247"/>
-      <c r="G40" s="247"/>
-      <c r="H40" s="247"/>
-      <c r="I40" s="241"/>
-    </row>
-    <row r="41" spans="1:9" s="208" customFormat="1">
-      <c r="A41" s="248" t="s">
+      <c r="B41" s="152" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" s="152"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="152"/>
+      <c r="F41" s="152"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="152"/>
+      <c r="I41" s="146"/>
+    </row>
+    <row r="42" spans="1:9" s="113" customFormat="1">
+      <c r="A42" s="153"/>
+      <c r="B42" s="152"/>
+      <c r="C42" s="152"/>
+      <c r="D42" s="152"/>
+      <c r="E42" s="152"/>
+      <c r="F42" s="152"/>
+      <c r="G42" s="152"/>
+      <c r="H42" s="152"/>
+      <c r="I42" s="146"/>
+    </row>
+    <row r="43" spans="1:9" s="113" customFormat="1">
+      <c r="A43" s="145">
+        <v>4</v>
+      </c>
+      <c r="B43" s="114" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="146"/>
+    </row>
+    <row r="44" spans="1:9" s="113" customFormat="1">
+      <c r="A44" s="145"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="146"/>
+    </row>
+    <row r="45" spans="1:9" s="113" customFormat="1">
+      <c r="A45" s="151" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="114" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
+      <c r="E45" s="114"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="146"/>
+    </row>
+    <row r="46" spans="1:9" s="113" customFormat="1">
+      <c r="A46" s="151"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="114"/>
+      <c r="I46" s="146"/>
+    </row>
+    <row r="47" spans="1:9" s="113" customFormat="1">
+      <c r="A47" s="149" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" s="114" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="146"/>
+    </row>
+    <row r="48" spans="1:9" s="113" customFormat="1">
+      <c r="A48" s="153"/>
+      <c r="B48" s="152"/>
+      <c r="C48" s="152"/>
+      <c r="D48" s="152"/>
+      <c r="E48" s="152"/>
+      <c r="F48" s="152"/>
+      <c r="G48" s="152"/>
+      <c r="H48" s="152"/>
+      <c r="I48" s="146"/>
+    </row>
+    <row r="49" spans="1:9" s="113" customFormat="1">
+      <c r="A49" s="153" t="s">
         <v>194</v>
       </c>
-      <c r="B41" s="247" t="s">
-        <v>187</v>
-      </c>
-      <c r="C41" s="247"/>
-      <c r="D41" s="247"/>
-      <c r="E41" s="247"/>
-      <c r="F41" s="247"/>
-      <c r="G41" s="247"/>
-      <c r="H41" s="247"/>
-      <c r="I41" s="241"/>
-    </row>
-    <row r="42" spans="1:9" s="208" customFormat="1">
-      <c r="A42" s="248"/>
-      <c r="B42" s="247"/>
-      <c r="C42" s="247"/>
-      <c r="D42" s="247"/>
-      <c r="E42" s="247"/>
-      <c r="F42" s="247"/>
-      <c r="G42" s="247"/>
-      <c r="H42" s="247"/>
-      <c r="I42" s="241"/>
-    </row>
-    <row r="43" spans="1:9" s="208" customFormat="1">
-      <c r="A43" s="240">
+      <c r="B49" s="152" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="152"/>
+      <c r="D49" s="152"/>
+      <c r="E49" s="152"/>
+      <c r="F49" s="152"/>
+      <c r="G49" s="152"/>
+      <c r="H49" s="152"/>
+      <c r="I49" s="146"/>
+    </row>
+    <row r="50" spans="1:9" s="113" customFormat="1">
+      <c r="A50" s="153"/>
+      <c r="B50" s="152"/>
+      <c r="C50" s="152"/>
+      <c r="D50" s="152"/>
+      <c r="E50" s="152"/>
+      <c r="F50" s="152"/>
+      <c r="G50" s="152"/>
+      <c r="H50" s="152"/>
+      <c r="I50" s="146"/>
+    </row>
+    <row r="51" spans="1:9" s="113" customFormat="1">
+      <c r="A51" s="153" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51" s="152" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="152"/>
+      <c r="D51" s="152"/>
+      <c r="E51" s="152"/>
+      <c r="F51" s="152"/>
+      <c r="G51" s="152"/>
+      <c r="H51" s="152"/>
+      <c r="I51" s="146"/>
+    </row>
+    <row r="52" spans="1:9" s="113" customFormat="1">
+      <c r="A52" s="148"/>
+      <c r="B52" s="114"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="114"/>
+      <c r="E52" s="114"/>
+      <c r="F52" s="114"/>
+      <c r="G52" s="114"/>
+      <c r="H52" s="114"/>
+      <c r="I52" s="146"/>
+    </row>
+    <row r="53" spans="1:9" s="113" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A53" s="151" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53" s="114" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="114"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="114"/>
+      <c r="F53" s="114"/>
+      <c r="G53" s="114"/>
+      <c r="H53" s="114"/>
+      <c r="I53" s="146"/>
+    </row>
+    <row r="54" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A54" s="148"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
+      <c r="G54" s="114"/>
+      <c r="H54" s="114"/>
+      <c r="I54" s="146"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A56" s="223" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="224"/>
+      <c r="C56" s="224"/>
+      <c r="D56" s="224"/>
+      <c r="E56" s="224"/>
+      <c r="F56" s="224"/>
+      <c r="G56" s="224"/>
+      <c r="H56" s="224"/>
+      <c r="I56" s="225"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A57" s="129" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" s="137" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57" s="137"/>
+      <c r="D57" s="137"/>
+      <c r="E57" s="137"/>
+      <c r="F57" s="137"/>
+      <c r="G57" s="137"/>
+      <c r="H57" s="137"/>
+      <c r="I57" s="136"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A58" s="138" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="131" t="s">
+        <v>189</v>
+      </c>
+      <c r="C58" s="132"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="139" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="115" t="s">
+        <v>179</v>
+      </c>
+      <c r="G58" s="130"/>
+      <c r="H58" s="130"/>
+      <c r="I58" s="126"/>
+    </row>
+    <row r="59" spans="1:9" ht="20.399999999999999" customHeight="1">
+      <c r="A59" s="138" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" s="140" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="141"/>
+      <c r="D59" s="142"/>
+      <c r="E59" s="135" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59" s="135"/>
+      <c r="G59" s="135"/>
+      <c r="H59" s="135"/>
+      <c r="I59" s="134"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="140" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" s="115" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="130"/>
+      <c r="D60" s="126"/>
+      <c r="E60" s="114" t="s">
+        <v>183</v>
+      </c>
+      <c r="F60" s="130"/>
+      <c r="G60" s="130"/>
+      <c r="H60" s="130"/>
+      <c r="I60" s="126"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="144" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" s="237" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="238"/>
+      <c r="D61" s="238"/>
+      <c r="E61" s="238"/>
+      <c r="F61" s="238"/>
+      <c r="G61" s="238"/>
+      <c r="H61" s="238"/>
+      <c r="I61" s="239"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="131" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="132"/>
+      <c r="C62" s="132"/>
+      <c r="D62" s="132"/>
+      <c r="E62" s="132"/>
+      <c r="F62" s="132"/>
+      <c r="G62" s="132"/>
+      <c r="H62" s="132"/>
+      <c r="I62" s="121"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="145">
+        <v>1</v>
+      </c>
+      <c r="B63" s="114" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="114"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="114"/>
+      <c r="F63" s="114"/>
+      <c r="G63" s="114"/>
+      <c r="H63" s="114"/>
+      <c r="I63" s="146"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="145"/>
+      <c r="B64" s="114"/>
+      <c r="C64" s="114"/>
+      <c r="D64" s="114"/>
+      <c r="E64" s="114"/>
+      <c r="F64" s="114"/>
+      <c r="G64" s="114"/>
+      <c r="H64" s="114"/>
+      <c r="I64" s="146"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="145">
+        <v>2</v>
+      </c>
+      <c r="B65" s="114" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="114"/>
+      <c r="D65" s="114"/>
+      <c r="E65" s="114"/>
+      <c r="F65" s="114"/>
+      <c r="G65" s="114"/>
+      <c r="H65" s="114"/>
+      <c r="I65" s="146"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="145"/>
+      <c r="B66" s="114"/>
+      <c r="C66" s="114"/>
+      <c r="D66" s="114"/>
+      <c r="E66" s="114"/>
+      <c r="F66" s="114"/>
+      <c r="G66" s="114"/>
+      <c r="H66" s="114"/>
+      <c r="I66" s="146"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="145">
+        <v>3</v>
+      </c>
+      <c r="B67" s="114" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="114"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="114"/>
+      <c r="F67" s="114"/>
+      <c r="G67" s="114"/>
+      <c r="H67" s="114"/>
+      <c r="I67" s="146"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="145"/>
+      <c r="B68" s="114"/>
+      <c r="C68" s="114"/>
+      <c r="D68" s="114"/>
+      <c r="E68" s="114"/>
+      <c r="F68" s="114"/>
+      <c r="G68" s="114"/>
+      <c r="H68" s="114"/>
+      <c r="I68" s="146"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="145">
         <v>4</v>
       </c>
-      <c r="B43" s="209" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="209"/>
-      <c r="D43" s="209"/>
-      <c r="E43" s="209"/>
-      <c r="F43" s="209"/>
-      <c r="G43" s="209"/>
-      <c r="H43" s="209"/>
-      <c r="I43" s="241"/>
-    </row>
-    <row r="44" spans="1:9" s="208" customFormat="1">
-      <c r="A44" s="240"/>
-      <c r="B44" s="209"/>
-      <c r="C44" s="209"/>
-      <c r="D44" s="209"/>
-      <c r="E44" s="209"/>
-      <c r="F44" s="209"/>
-      <c r="G44" s="209"/>
-      <c r="H44" s="209"/>
-      <c r="I44" s="241"/>
-    </row>
-    <row r="45" spans="1:9" s="208" customFormat="1">
-      <c r="A45" s="246" t="s">
-        <v>163</v>
-      </c>
-      <c r="B45" s="209" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" s="209"/>
-      <c r="D45" s="209"/>
-      <c r="E45" s="209"/>
-      <c r="F45" s="209"/>
-      <c r="G45" s="209"/>
-      <c r="H45" s="209"/>
-      <c r="I45" s="241"/>
-    </row>
-    <row r="46" spans="1:9" s="208" customFormat="1">
-      <c r="A46" s="246"/>
-      <c r="B46" s="209"/>
-      <c r="C46" s="209"/>
-      <c r="D46" s="209"/>
-      <c r="E46" s="209"/>
-      <c r="F46" s="209"/>
-      <c r="G46" s="209"/>
-      <c r="H46" s="209"/>
-      <c r="I46" s="241"/>
-    </row>
-    <row r="47" spans="1:9" s="208" customFormat="1">
-      <c r="A47" s="244" t="s">
-        <v>165</v>
-      </c>
-      <c r="B47" s="209" t="s">
-        <v>134</v>
-      </c>
-      <c r="C47" s="209"/>
-      <c r="D47" s="209"/>
-      <c r="E47" s="209"/>
-      <c r="F47" s="209"/>
-      <c r="G47" s="209"/>
-      <c r="H47" s="209"/>
-      <c r="I47" s="241"/>
-    </row>
-    <row r="48" spans="1:9" s="208" customFormat="1">
-      <c r="A48" s="248"/>
-      <c r="B48" s="247"/>
-      <c r="C48" s="247"/>
-      <c r="D48" s="247"/>
-      <c r="E48" s="247"/>
-      <c r="F48" s="247"/>
-      <c r="G48" s="247"/>
-      <c r="H48" s="247"/>
-      <c r="I48" s="241"/>
-    </row>
-    <row r="49" spans="1:9" s="208" customFormat="1">
-      <c r="A49" s="248" t="s">
-        <v>195</v>
-      </c>
-      <c r="B49" s="247" t="s">
-        <v>125</v>
-      </c>
-      <c r="C49" s="247"/>
-      <c r="D49" s="247"/>
-      <c r="E49" s="247"/>
-      <c r="F49" s="247"/>
-      <c r="G49" s="247"/>
-      <c r="H49" s="247"/>
-      <c r="I49" s="241"/>
-    </row>
-    <row r="50" spans="1:9" s="208" customFormat="1">
-      <c r="A50" s="248"/>
-      <c r="B50" s="247"/>
-      <c r="C50" s="247"/>
-      <c r="D50" s="247"/>
-      <c r="E50" s="247"/>
-      <c r="F50" s="247"/>
-      <c r="G50" s="247"/>
-      <c r="H50" s="247"/>
-      <c r="I50" s="241"/>
-    </row>
-    <row r="51" spans="1:9" s="208" customFormat="1">
-      <c r="A51" s="248" t="s">
-        <v>196</v>
-      </c>
-      <c r="B51" s="247" t="s">
-        <v>126</v>
-      </c>
-      <c r="C51" s="247"/>
-      <c r="D51" s="247"/>
-      <c r="E51" s="247"/>
-      <c r="F51" s="247"/>
-      <c r="G51" s="247"/>
-      <c r="H51" s="247"/>
-      <c r="I51" s="241"/>
-    </row>
-    <row r="52" spans="1:9" s="208" customFormat="1">
-      <c r="A52" s="243"/>
-      <c r="B52" s="209"/>
-      <c r="C52" s="209"/>
-      <c r="D52" s="209"/>
-      <c r="E52" s="209"/>
-      <c r="F52" s="209"/>
-      <c r="G52" s="209"/>
-      <c r="H52" s="209"/>
-      <c r="I52" s="241"/>
-    </row>
-    <row r="53" spans="1:9" s="208" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A53" s="246" t="s">
-        <v>197</v>
-      </c>
-      <c r="B53" s="209" t="s">
-        <v>150</v>
-      </c>
-      <c r="C53" s="209"/>
-      <c r="D53" s="209"/>
-      <c r="E53" s="209"/>
-      <c r="F53" s="209"/>
-      <c r="G53" s="209"/>
-      <c r="H53" s="209"/>
-      <c r="I53" s="241"/>
-    </row>
-    <row r="54" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A54" s="243"/>
-      <c r="B54" s="209"/>
-      <c r="C54" s="209"/>
-      <c r="D54" s="209"/>
-      <c r="E54" s="209"/>
-      <c r="F54" s="209"/>
-      <c r="G54" s="209"/>
-      <c r="H54" s="209"/>
-      <c r="I54" s="241"/>
-    </row>
-    <row r="56" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A56" s="174" t="s">
-        <v>180</v>
-      </c>
-      <c r="B56" s="175"/>
-      <c r="C56" s="175"/>
-      <c r="D56" s="175"/>
-      <c r="E56" s="175"/>
-      <c r="F56" s="175"/>
-      <c r="G56" s="175"/>
-      <c r="H56" s="175"/>
-      <c r="I56" s="176"/>
-    </row>
-    <row r="57" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A57" s="224" t="s">
-        <v>42</v>
-      </c>
-      <c r="B57" s="232" t="s">
-        <v>188</v>
-      </c>
-      <c r="C57" s="232"/>
-      <c r="D57" s="232"/>
-      <c r="E57" s="232"/>
-      <c r="F57" s="232"/>
-      <c r="G57" s="232"/>
-      <c r="H57" s="232"/>
-      <c r="I57" s="231"/>
-    </row>
-    <row r="58" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A58" s="233" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" s="226" t="s">
-        <v>189</v>
-      </c>
-      <c r="C58" s="227"/>
-      <c r="D58" s="216"/>
-      <c r="E58" s="234" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58" s="210" t="s">
-        <v>179</v>
-      </c>
-      <c r="G58" s="225"/>
-      <c r="H58" s="225"/>
-      <c r="I58" s="221"/>
-    </row>
-    <row r="59" spans="1:9" ht="20.399999999999999" customHeight="1">
-      <c r="A59" s="233" t="s">
-        <v>178</v>
-      </c>
-      <c r="B59" s="235" t="s">
-        <v>43</v>
-      </c>
-      <c r="C59" s="236"/>
-      <c r="D59" s="237"/>
-      <c r="E59" s="230" t="s">
-        <v>40</v>
-      </c>
-      <c r="F59" s="230"/>
-      <c r="G59" s="230"/>
-      <c r="H59" s="230"/>
-      <c r="I59" s="229"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="235" t="s">
-        <v>44</v>
-      </c>
-      <c r="B60" s="210" t="s">
-        <v>182</v>
-      </c>
-      <c r="C60" s="225"/>
-      <c r="D60" s="221"/>
-      <c r="E60" s="209" t="s">
-        <v>183</v>
-      </c>
-      <c r="F60" s="225"/>
-      <c r="G60" s="225"/>
-      <c r="H60" s="225"/>
-      <c r="I60" s="221"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="239" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="180" t="s">
-        <v>127</v>
-      </c>
-      <c r="C61" s="181"/>
-      <c r="D61" s="181"/>
-      <c r="E61" s="181"/>
-      <c r="F61" s="181"/>
-      <c r="G61" s="181"/>
-      <c r="H61" s="181"/>
-      <c r="I61" s="182"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="226" t="s">
-        <v>47</v>
-      </c>
-      <c r="B62" s="227"/>
-      <c r="C62" s="227"/>
-      <c r="D62" s="227"/>
-      <c r="E62" s="227"/>
-      <c r="F62" s="227"/>
-      <c r="G62" s="227"/>
-      <c r="H62" s="227"/>
-      <c r="I62" s="216"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="240">
-        <v>1</v>
-      </c>
-      <c r="B63" s="209" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" s="209"/>
-      <c r="D63" s="209"/>
-      <c r="E63" s="209"/>
-      <c r="F63" s="209"/>
-      <c r="G63" s="209"/>
-      <c r="H63" s="209"/>
-      <c r="I63" s="241"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="240"/>
-      <c r="B64" s="209"/>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
-      <c r="E64" s="209"/>
-      <c r="F64" s="209"/>
-      <c r="G64" s="209"/>
-      <c r="H64" s="209"/>
-      <c r="I64" s="241"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="240">
-        <v>2</v>
-      </c>
-      <c r="B65" s="209" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" s="209"/>
-      <c r="D65" s="209"/>
-      <c r="E65" s="209"/>
-      <c r="F65" s="209"/>
-      <c r="G65" s="209"/>
-      <c r="H65" s="209"/>
-      <c r="I65" s="241"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="240"/>
-      <c r="B66" s="209"/>
-      <c r="C66" s="209"/>
-      <c r="D66" s="209"/>
-      <c r="E66" s="209"/>
-      <c r="F66" s="209"/>
-      <c r="G66" s="209"/>
-      <c r="H66" s="209"/>
-      <c r="I66" s="241"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="240">
-        <v>3</v>
-      </c>
-      <c r="B67" s="209" t="s">
-        <v>130</v>
-      </c>
-      <c r="C67" s="209"/>
-      <c r="D67" s="209"/>
-      <c r="E67" s="209"/>
-      <c r="F67" s="209"/>
-      <c r="G67" s="209"/>
-      <c r="H67" s="209"/>
-      <c r="I67" s="241"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="240"/>
-      <c r="B68" s="209"/>
-      <c r="C68" s="209"/>
-      <c r="D68" s="209"/>
-      <c r="E68" s="209"/>
-      <c r="F68" s="209"/>
-      <c r="G68" s="209"/>
-      <c r="H68" s="209"/>
-      <c r="I68" s="241"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="240">
-        <v>4</v>
-      </c>
-      <c r="B69" s="209" t="s">
+      <c r="B69" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
-      <c r="E69" s="209"/>
-      <c r="F69" s="209"/>
-      <c r="G69" s="209"/>
-      <c r="H69" s="209"/>
-      <c r="I69" s="241"/>
+      <c r="C69" s="114"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="114"/>
+      <c r="F69" s="114"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="114"/>
+      <c r="I69" s="146"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="240"/>
-      <c r="B70" s="209"/>
-      <c r="C70" s="209"/>
-      <c r="D70" s="209"/>
-      <c r="E70" s="209"/>
-      <c r="F70" s="209"/>
-      <c r="G70" s="209"/>
-      <c r="H70" s="209"/>
-      <c r="I70" s="241"/>
+      <c r="A70" s="145"/>
+      <c r="B70" s="114"/>
+      <c r="C70" s="114"/>
+      <c r="D70" s="114"/>
+      <c r="E70" s="114"/>
+      <c r="F70" s="114"/>
+      <c r="G70" s="114"/>
+      <c r="H70" s="114"/>
+      <c r="I70" s="146"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="249"/>
-      <c r="B71" s="238"/>
-      <c r="C71" s="238"/>
-      <c r="D71" s="238"/>
-      <c r="E71" s="238"/>
-      <c r="F71" s="238"/>
-      <c r="G71" s="238"/>
-      <c r="H71" s="238"/>
-      <c r="I71" s="242"/>
+      <c r="A71" s="154"/>
+      <c r="B71" s="143"/>
+      <c r="C71" s="143"/>
+      <c r="D71" s="143"/>
+      <c r="E71" s="143"/>
+      <c r="F71" s="143"/>
+      <c r="G71" s="143"/>
+      <c r="H71" s="143"/>
+      <c r="I71" s="147"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="245"/>
+      <c r="A73" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
     <mergeCell ref="B61:I61"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:D9"/>
@@ -8845,12 +8851,6 @@
     <mergeCell ref="A25:I25"/>
     <mergeCell ref="B30:I30"/>
     <mergeCell ref="B32:H33"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8896,13 +8896,13 @@
       <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="177" t="s">
+      <c r="C2" s="226" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="179"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="228"/>
       <c r="H2" s="33" t="s">
         <v>2</v>
       </c>
@@ -8915,13 +8915,13 @@
       <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="180" t="s">
+      <c r="C3" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="182"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="239"/>
       <c r="H3" s="37" t="s">
         <v>5</v>
       </c>
@@ -8934,17 +8934,17 @@
       <c r="B4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="237" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="182"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="238"/>
+      <c r="G4" s="239"/>
       <c r="H4" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="221" t="s">
+      <c r="I4" s="126" t="s">
         <v>156</v>
       </c>
     </row>
@@ -8955,17 +8955,17 @@
       <c r="B5" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="180" t="s">
+      <c r="C5" s="237" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="182"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="239"/>
       <c r="H5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="221" t="s">
+      <c r="I5" s="126" t="s">
         <v>159</v>
       </c>
     </row>
@@ -8974,42 +8974,42 @@
       <c r="B6" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="180" t="s">
+      <c r="C6" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="182"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="239"/>
       <c r="H6" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="219">
+      <c r="I6" s="124">
         <v>43732</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
-      <c r="A7" s="174" t="s">
+      <c r="A7" s="223" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="175"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="176"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="224"/>
+      <c r="I7" s="225"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="229" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="185" t="s">
+      <c r="B8" s="231" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="186"/>
-      <c r="D8" s="187"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="233"/>
       <c r="E8" s="43" t="s">
         <v>35</v>
       </c>
@@ -9021,11 +9021,11 @@
       <c r="I8" s="40"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
-      <c r="A9" s="184"/>
-      <c r="B9" s="188"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="183" t="s">
+      <c r="A9" s="230"/>
+      <c r="B9" s="234"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="229" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="45" t="s">
@@ -9044,7 +9044,7 @@
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="35"/>
-      <c r="E10" s="184"/>
+      <c r="E10" s="230"/>
       <c r="F10" s="45" t="s">
         <v>36</v>
       </c>
@@ -9068,17 +9068,17 @@
       <c r="I11" s="40"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1">
-      <c r="A12" s="174" t="s">
+      <c r="A12" s="223" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="175"/>
-      <c r="C12" s="175"/>
-      <c r="D12" s="175"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="175"/>
-      <c r="I12" s="176"/>
+      <c r="B12" s="224"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="224"/>
+      <c r="F12" s="224"/>
+      <c r="G12" s="224"/>
+      <c r="H12" s="224"/>
+      <c r="I12" s="225"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1">
       <c r="A13" s="43" t="s">
@@ -9152,16 +9152,16 @@
       <c r="A17" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="180" t="s">
+      <c r="B17" s="237" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="181"/>
-      <c r="D17" s="181"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="181"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="181"/>
-      <c r="I17" s="182"/>
+      <c r="C17" s="238"/>
+      <c r="D17" s="238"/>
+      <c r="E17" s="238"/>
+      <c r="F17" s="238"/>
+      <c r="G17" s="238"/>
+      <c r="H17" s="238"/>
+      <c r="I17" s="239"/>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1">
       <c r="A18" s="36" t="s">
@@ -9217,16 +9217,16 @@
       <c r="H21" s="27"/>
       <c r="I21" s="59"/>
     </row>
-    <row r="22" spans="1:9" s="208" customFormat="1" ht="18" customHeight="1">
+    <row r="22" spans="1:9" s="113" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="105"/>
-      <c r="B22" s="209"/>
-      <c r="C22" s="209"/>
-      <c r="D22" s="209"/>
-      <c r="E22" s="209"/>
-      <c r="F22" s="209"/>
-      <c r="G22" s="209"/>
-      <c r="H22" s="209"/>
-      <c r="I22" s="241"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="146"/>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1">
       <c r="A23" s="106" t="s">
@@ -9244,113 +9244,113 @@
       <c r="I23" s="59"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1">
-      <c r="A25" s="174" t="s">
+      <c r="A25" s="223" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="175"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="175"/>
-      <c r="I25" s="176"/>
+      <c r="B25" s="224"/>
+      <c r="C25" s="224"/>
+      <c r="D25" s="224"/>
+      <c r="E25" s="224"/>
+      <c r="F25" s="224"/>
+      <c r="G25" s="224"/>
+      <c r="H25" s="224"/>
+      <c r="I25" s="225"/>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1">
-      <c r="A26" s="224" t="s">
+      <c r="A26" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="232" t="s">
+      <c r="B26" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="C26" s="232"/>
-      <c r="D26" s="232"/>
-      <c r="E26" s="232"/>
-      <c r="F26" s="232"/>
-      <c r="G26" s="232"/>
-      <c r="H26" s="232"/>
-      <c r="I26" s="231"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="136"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1">
-      <c r="A27" s="233" t="s">
+      <c r="A27" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="226" t="s">
+      <c r="B27" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="227"/>
-      <c r="D27" s="216"/>
-      <c r="E27" s="234" t="s">
+      <c r="C27" s="132"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="210" t="s">
+      <c r="F27" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="225"/>
-      <c r="H27" s="225"/>
-      <c r="I27" s="221"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="126"/>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1">
-      <c r="A28" s="233" t="s">
+      <c r="A28" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="235" t="s">
+      <c r="B28" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="236"/>
-      <c r="D28" s="237"/>
-      <c r="E28" s="230" t="s">
+      <c r="C28" s="141"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="230"/>
-      <c r="G28" s="230"/>
-      <c r="H28" s="230"/>
-      <c r="I28" s="229"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="134"/>
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1">
-      <c r="A29" s="235" t="s">
+      <c r="A29" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="210" t="s">
+      <c r="B29" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="225"/>
-      <c r="D29" s="221"/>
-      <c r="E29" s="208" t="s">
+      <c r="C29" s="130"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="225"/>
-      <c r="G29" s="225"/>
-      <c r="H29" s="225"/>
-      <c r="I29" s="221"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="126"/>
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1">
-      <c r="A30" s="239" t="s">
+      <c r="A30" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="180" t="s">
+      <c r="B30" s="237" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="181"/>
-      <c r="D30" s="181"/>
-      <c r="E30" s="181"/>
-      <c r="F30" s="181"/>
-      <c r="G30" s="181"/>
-      <c r="H30" s="181"/>
-      <c r="I30" s="182"/>
+      <c r="C30" s="238"/>
+      <c r="D30" s="238"/>
+      <c r="E30" s="238"/>
+      <c r="F30" s="238"/>
+      <c r="G30" s="238"/>
+      <c r="H30" s="238"/>
+      <c r="I30" s="239"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="217" t="s">
+      <c r="A31" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="225"/>
-      <c r="C31" s="225"/>
-      <c r="D31" s="225"/>
-      <c r="E31" s="225"/>
-      <c r="F31" s="225"/>
-      <c r="G31" s="225"/>
-      <c r="H31" s="225"/>
-      <c r="I31" s="221"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="126"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="101"/>
@@ -9428,6 +9428,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
     <mergeCell ref="A25:I25"/>
     <mergeCell ref="B30:I30"/>
     <mergeCell ref="B17:I17"/>
@@ -9436,11 +9441,6 @@
     <mergeCell ref="B8:D9"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="A12:I12"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9455,7 +9455,7 @@
   </sheetPr>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:I27"/>
     </sheetView>
   </sheetViews>
@@ -9486,13 +9486,13 @@
       <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="177" t="s">
+      <c r="C2" s="226" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="179"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="228"/>
       <c r="H2" s="33" t="s">
         <v>2</v>
       </c>
@@ -9505,13 +9505,13 @@
       <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="180" t="s">
+      <c r="C3" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="182"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="239"/>
       <c r="H3" s="37" t="s">
         <v>5</v>
       </c>
@@ -9524,17 +9524,17 @@
       <c r="B4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="237" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="182"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="238"/>
+      <c r="G4" s="239"/>
       <c r="H4" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="221" t="s">
+      <c r="I4" s="126" t="s">
         <v>156</v>
       </c>
     </row>
@@ -9545,17 +9545,17 @@
       <c r="B5" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="180" t="s">
+      <c r="C5" s="237" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="182"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="239"/>
       <c r="H5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="221" t="s">
+      <c r="I5" s="126" t="s">
         <v>159</v>
       </c>
     </row>
@@ -9564,42 +9564,42 @@
       <c r="B6" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="180" t="s">
+      <c r="C6" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="182"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="239"/>
       <c r="H6" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="219">
+      <c r="I6" s="124">
         <v>43732</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
-      <c r="A7" s="174" t="s">
+      <c r="A7" s="223" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="175"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="176"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="224"/>
+      <c r="I7" s="225"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="229" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="185" t="s">
+      <c r="B8" s="231" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="186"/>
-      <c r="D8" s="187"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="233"/>
       <c r="E8" s="43" t="s">
         <v>35</v>
       </c>
@@ -9611,11 +9611,11 @@
       <c r="I8" s="40"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
-      <c r="A9" s="184"/>
-      <c r="B9" s="188"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="183" t="s">
+      <c r="A9" s="230"/>
+      <c r="B9" s="234"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="229" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="45" t="s">
@@ -9634,7 +9634,7 @@
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="35"/>
-      <c r="E10" s="184"/>
+      <c r="E10" s="230"/>
       <c r="F10" s="45" t="s">
         <v>36</v>
       </c>
@@ -9658,17 +9658,17 @@
       <c r="I11" s="40"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1">
-      <c r="A12" s="174" t="s">
+      <c r="A12" s="223" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="175"/>
-      <c r="C12" s="175"/>
-      <c r="D12" s="175"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="175"/>
-      <c r="I12" s="176"/>
+      <c r="B12" s="224"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="224"/>
+      <c r="F12" s="224"/>
+      <c r="G12" s="224"/>
+      <c r="H12" s="224"/>
+      <c r="I12" s="225"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1">
       <c r="A13" s="43" t="s">
@@ -9742,16 +9742,16 @@
       <c r="A17" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="180" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" s="181"/>
-      <c r="D17" s="181"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="181"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="181"/>
-      <c r="I17" s="182"/>
+      <c r="B17" s="237" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="238"/>
+      <c r="D17" s="238"/>
+      <c r="E17" s="238"/>
+      <c r="F17" s="238"/>
+      <c r="G17" s="238"/>
+      <c r="H17" s="238"/>
+      <c r="I17" s="239"/>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1">
       <c r="A18" s="36" t="s">
@@ -9767,41 +9767,41 @@
       <c r="I18" s="40"/>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1">
-      <c r="A19" s="193">
+      <c r="A19" s="248">
         <v>1</v>
       </c>
-      <c r="B19" s="194" t="s">
+      <c r="B19" s="246" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="194"/>
-      <c r="D19" s="194"/>
-      <c r="E19" s="194"/>
-      <c r="F19" s="194"/>
-      <c r="G19" s="194"/>
-      <c r="H19" s="194"/>
-      <c r="I19" s="195"/>
+      <c r="C19" s="246"/>
+      <c r="D19" s="246"/>
+      <c r="E19" s="246"/>
+      <c r="F19" s="246"/>
+      <c r="G19" s="246"/>
+      <c r="H19" s="246"/>
+      <c r="I19" s="247"/>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1">
-      <c r="A20" s="193"/>
-      <c r="B20" s="194"/>
-      <c r="C20" s="194"/>
-      <c r="D20" s="194"/>
-      <c r="E20" s="194"/>
-      <c r="F20" s="194"/>
-      <c r="G20" s="194"/>
-      <c r="H20" s="194"/>
-      <c r="I20" s="195"/>
+      <c r="A20" s="248"/>
+      <c r="B20" s="246"/>
+      <c r="C20" s="246"/>
+      <c r="D20" s="246"/>
+      <c r="E20" s="246"/>
+      <c r="F20" s="246"/>
+      <c r="G20" s="246"/>
+      <c r="H20" s="246"/>
+      <c r="I20" s="247"/>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1">
-      <c r="A21" s="193"/>
-      <c r="B21" s="194"/>
-      <c r="C21" s="194"/>
-      <c r="D21" s="194"/>
-      <c r="E21" s="194"/>
-      <c r="F21" s="194"/>
-      <c r="G21" s="194"/>
-      <c r="H21" s="194"/>
-      <c r="I21" s="195"/>
+      <c r="A21" s="248"/>
+      <c r="B21" s="246"/>
+      <c r="C21" s="246"/>
+      <c r="D21" s="246"/>
+      <c r="E21" s="246"/>
+      <c r="F21" s="246"/>
+      <c r="G21" s="246"/>
+      <c r="H21" s="246"/>
+      <c r="I21" s="247"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1">
       <c r="A22" s="107"/>
@@ -9829,16 +9829,16 @@
       <c r="H23" s="27"/>
       <c r="I23" s="59"/>
     </row>
-    <row r="24" spans="1:9" s="208" customFormat="1" ht="18" customHeight="1">
+    <row r="24" spans="1:9" s="113" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="101"/>
-      <c r="B24" s="209"/>
-      <c r="C24" s="209"/>
-      <c r="D24" s="209"/>
-      <c r="E24" s="209"/>
-      <c r="F24" s="209"/>
-      <c r="G24" s="209"/>
-      <c r="H24" s="209"/>
-      <c r="I24" s="241"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="146"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1">
       <c r="A25" s="105" t="s">
@@ -9856,124 +9856,124 @@
       <c r="I25" s="59"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="242"/>
-      <c r="B26" s="238"/>
-      <c r="C26" s="238"/>
-      <c r="D26" s="238"/>
-      <c r="E26" s="238"/>
-      <c r="F26" s="238"/>
-      <c r="G26" s="238"/>
-      <c r="H26" s="238"/>
-      <c r="I26" s="242"/>
+      <c r="A26" s="147"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="147"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1">
-      <c r="A27" s="174" t="s">
+      <c r="A27" s="223" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="175"/>
-      <c r="C27" s="175"/>
-      <c r="D27" s="175"/>
-      <c r="E27" s="175"/>
-      <c r="F27" s="175"/>
-      <c r="G27" s="175"/>
-      <c r="H27" s="175"/>
-      <c r="I27" s="176"/>
+      <c r="B27" s="224"/>
+      <c r="C27" s="224"/>
+      <c r="D27" s="224"/>
+      <c r="E27" s="224"/>
+      <c r="F27" s="224"/>
+      <c r="G27" s="224"/>
+      <c r="H27" s="224"/>
+      <c r="I27" s="225"/>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1">
-      <c r="A28" s="224" t="s">
+      <c r="A28" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="232" t="s">
+      <c r="B28" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="232"/>
-      <c r="D28" s="232"/>
-      <c r="E28" s="232"/>
-      <c r="F28" s="232"/>
-      <c r="G28" s="232"/>
-      <c r="H28" s="232"/>
-      <c r="I28" s="231"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="136"/>
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1">
-      <c r="A29" s="233" t="s">
+      <c r="A29" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="226" t="s">
+      <c r="B29" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="227"/>
-      <c r="D29" s="216"/>
-      <c r="E29" s="234" t="s">
+      <c r="C29" s="132"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="210" t="s">
+      <c r="F29" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="225"/>
-      <c r="H29" s="225"/>
-      <c r="I29" s="221"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="126"/>
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1">
-      <c r="A30" s="233" t="s">
+      <c r="A30" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="235" t="s">
+      <c r="B30" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="236"/>
-      <c r="D30" s="237"/>
-      <c r="E30" s="230" t="s">
+      <c r="C30" s="141"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="230"/>
-      <c r="G30" s="230"/>
-      <c r="H30" s="230"/>
-      <c r="I30" s="229"/>
+      <c r="F30" s="135"/>
+      <c r="G30" s="135"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="134"/>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1">
-      <c r="A31" s="235" t="s">
+      <c r="A31" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="210" t="s">
+      <c r="B31" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="225"/>
-      <c r="D31" s="221"/>
-      <c r="E31" s="208" t="s">
+      <c r="C31" s="130"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="225"/>
-      <c r="G31" s="225"/>
-      <c r="H31" s="225"/>
-      <c r="I31" s="221"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="126"/>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1">
-      <c r="A32" s="239" t="s">
+      <c r="A32" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="180" t="s">
+      <c r="B32" s="237" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="181"/>
-      <c r="D32" s="181"/>
-      <c r="E32" s="181"/>
-      <c r="F32" s="181"/>
-      <c r="G32" s="181"/>
-      <c r="H32" s="181"/>
-      <c r="I32" s="182"/>
+      <c r="C32" s="238"/>
+      <c r="D32" s="238"/>
+      <c r="E32" s="238"/>
+      <c r="F32" s="238"/>
+      <c r="G32" s="238"/>
+      <c r="H32" s="238"/>
+      <c r="I32" s="239"/>
     </row>
     <row r="33" spans="1:9" ht="18" customHeight="1">
-      <c r="A33" s="217" t="s">
+      <c r="A33" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="225"/>
-      <c r="C33" s="225"/>
-      <c r="D33" s="225"/>
-      <c r="E33" s="225"/>
-      <c r="F33" s="225"/>
-      <c r="G33" s="225"/>
-      <c r="H33" s="225"/>
-      <c r="I33" s="221"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="126"/>
     </row>
     <row r="34" spans="1:9" ht="18" customHeight="1">
       <c r="A34" s="101"/>
@@ -9988,7 +9988,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="106" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B35" s="27" t="s">
         <v>87</v>
@@ -10014,7 +10014,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="106" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B37" s="27" t="s">
         <v>91</v>
@@ -10137,13 +10137,13 @@
       <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="177" t="s">
+      <c r="C2" s="226" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="179"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="228"/>
       <c r="H2" s="33" t="s">
         <v>2</v>
       </c>
@@ -10156,13 +10156,13 @@
       <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="180" t="s">
+      <c r="C3" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="182"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="239"/>
       <c r="H3" s="37" t="s">
         <v>5</v>
       </c>
@@ -10175,13 +10175,13 @@
       <c r="B4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="237" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="182"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="238"/>
+      <c r="G4" s="239"/>
       <c r="H4" s="37" t="s">
         <v>25</v>
       </c>
@@ -10196,13 +10196,13 @@
       <c r="B5" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="180" t="s">
+      <c r="C5" s="237" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="182"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="239"/>
       <c r="H5" s="37" t="s">
         <v>9</v>
       </c>
@@ -10213,40 +10213,40 @@
       <c r="B6" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="180" t="s">
+      <c r="C6" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="182"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="239"/>
       <c r="H6" s="37" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="40"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A7" s="174" t="s">
+      <c r="A7" s="223" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="175"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="176"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="224"/>
+      <c r="I7" s="225"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="229" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="185" t="s">
+      <c r="B8" s="231" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="186"/>
-      <c r="D8" s="187"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="233"/>
       <c r="E8" s="43" t="s">
         <v>35</v>
       </c>
@@ -10258,11 +10258,11 @@
       <c r="I8" s="40"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A9" s="184"/>
-      <c r="B9" s="188"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="183" t="s">
+      <c r="A9" s="230"/>
+      <c r="B9" s="234"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="229" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="45" t="s">
@@ -10281,7 +10281,7 @@
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="35"/>
-      <c r="E10" s="184"/>
+      <c r="E10" s="230"/>
       <c r="F10" s="45" t="s">
         <v>36</v>
       </c>
@@ -10503,13 +10503,13 @@
       <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="177" t="s">
+      <c r="C2" s="226" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="179"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="228"/>
       <c r="H2" s="33" t="s">
         <v>2</v>
       </c>
@@ -10522,13 +10522,13 @@
       <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="180" t="s">
+      <c r="C3" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="182"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="239"/>
       <c r="H3" s="37" t="s">
         <v>5</v>
       </c>
@@ -10541,13 +10541,13 @@
       <c r="B4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="180" t="s">
+      <c r="C4" s="237" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="182"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="238"/>
+      <c r="F4" s="238"/>
+      <c r="G4" s="239"/>
       <c r="H4" s="37" t="s">
         <v>25</v>
       </c>
@@ -10562,13 +10562,13 @@
       <c r="B5" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="180" t="s">
+      <c r="C5" s="237" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="182"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="239"/>
       <c r="H5" s="37" t="s">
         <v>9</v>
       </c>
@@ -10579,40 +10579,40 @@
       <c r="B6" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="180" t="s">
+      <c r="C6" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="182"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="239"/>
       <c r="H6" s="37" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="40"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A7" s="174" t="s">
+      <c r="A7" s="223" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="175"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="176"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="224"/>
+      <c r="I7" s="225"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="229" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="185" t="s">
+      <c r="B8" s="231" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="186"/>
-      <c r="D8" s="187"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="233"/>
       <c r="E8" s="43" t="s">
         <v>35</v>
       </c>
@@ -10624,11 +10624,11 @@
       <c r="I8" s="40"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A9" s="184"/>
-      <c r="B9" s="188"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="183" t="s">
+      <c r="A9" s="230"/>
+      <c r="B9" s="234"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="229" t="s">
         <v>30</v>
       </c>
       <c r="F9" s="45" t="s">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="35"/>
-      <c r="E10" s="184"/>
+      <c r="E10" s="230"/>
       <c r="F10" s="45" t="s">
         <v>36</v>
       </c>
